--- a/scripts/Foods.xlsx
+++ b/scripts/Foods.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="351">
   <si>
     <t>type</t>
   </si>
@@ -49,24 +49,12 @@
     <t>topic</t>
   </si>
   <si>
-    <t>Onion</t>
-  </si>
-  <si>
     <t>Tomatoes</t>
   </si>
   <si>
-    <t>Cabbage</t>
-  </si>
-  <si>
     <t>Tomatoes have been eaten since ancient times. Tomatoes are the fruit of tomato plant. Being originated from central America, it was first used by Aztecs in southern Mexico.</t>
   </si>
   <si>
-    <t xml:space="preserve">Doesn't it look like a bunch of leaves wrapped together like a ball? You guessed it right! It is cabbage, one of the healthiest vegetable. This vegetable has been grown around the world for thousands of years and can be found in variety of dishes. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Onions are one of the ancient food known to human race. It's the most used vegetable all over the world. It is a member of the bulb family. That is because the most important part of the onion the bulb, grows under the ground. There are 27 different varieties of onion and it's one of the easiest vegetable to grow. </t>
-  </si>
-  <si>
     <t>activity</t>
   </si>
   <si>
@@ -82,132 +70,49 @@
     <t>My garden of colourful tomatoes</t>
   </si>
   <si>
-    <t>I can draw an onion plant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Using the drawing tools, draw a plant showing the onions under ground. </t>
-  </si>
-  <si>
-    <t>I can draw a cabbage</t>
-  </si>
-  <si>
-    <t>Using the drawing tools, draw a cabbage and colour it.</t>
-  </si>
-  <si>
-    <t>Tri colour onion basket</t>
-  </si>
-  <si>
-    <t>template of cabbages</t>
-  </si>
-  <si>
-    <t>My garden of colourful cabbages</t>
-  </si>
-  <si>
     <t>Use different colours to colour the tomatoes in the garden.</t>
   </si>
   <si>
-    <t>Draw a basket full of onions. Colour the onions in purple, yellow and white colours.</t>
-  </si>
-  <si>
-    <t>Use different colours to colour the cabbages in the garden.</t>
-  </si>
-  <si>
     <t>Healthy Tomato family</t>
   </si>
   <si>
-    <t>Cabbage faces</t>
-  </si>
-  <si>
     <t>Using the drawing tools, create a family of tomato people. Draw arms, legs, eyes, nose, mouth, face and ears. Add more details to make it tomato father, mother, son, daughter, grandparents etc.</t>
   </si>
   <si>
-    <t>Using the drawing tools, create different faces for the cabbages. Add a smiling, crying, scared, laughing any kind of emotions for the cabbages.</t>
-  </si>
-  <si>
     <t>article</t>
   </si>
   <si>
     <t>tomatoes_variety_article.jpg</t>
   </si>
   <si>
-    <t>Image of a snail (for reference)</t>
-  </si>
-  <si>
-    <t>A farm of Onion Snails</t>
-  </si>
-  <si>
-    <t>Look at the image of snail. Using drawing tools create a farm of onion snails. Colour the onions as desired. Make it colourful with snails all around.</t>
-  </si>
-  <si>
     <t>Believe it or not</t>
   </si>
   <si>
     <t xml:space="preserve">There are around 10,000 varieties of tomatoes world wide. Aren't you surprised? How many varieties have you seen? Okay, now if you are thinking that tomato is always red you are wrong. Tomatoes grow in different colours. They can be yellow, pink, purple, blacka nd white. While tomatoes are perfectly safe and healthy to eat, their leaves are actually poisonous. </t>
   </si>
   <si>
-    <t>Let's explore the vegetable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Onion was cultivated 7000 years back. It's a fact that onion is widely used all over the world. Onions differ in size, shape, colour and taste. Apart from its taste it also adds health benifits. Onions develop roots, bulb and green leaves. Both bulb and leaves are used except the roots. Onions can be round, egg like or torpedo shaped. They grow in purple, white and yellow colour. pearl onions, bermuda onions, egyptian onions, green onions, vidalia onions, super-sweets, shallots and scallions are the different varieties of onions. </t>
-  </si>
-  <si>
     <t>tomato_consumption.jpg</t>
   </si>
   <si>
     <t>Tomato Consumption</t>
   </si>
   <si>
-    <t xml:space="preserve">Cabbage is the most popular vegetables in the world. It can grow in wide range of climatic conditions and soil type. It is easy to grow and preserve a cabbage. Cabbage comes in different shapes and colours. Red, purple, white and green are the different colours. The cabbage leaves can either be crinkled or smooth. </t>
-  </si>
-  <si>
     <t>The tomato is eaten in many different ways. It is eaten raw as a fruit, salad, important ingredient in many dishes, sauces, soup, ketchup etc. Tomato juice is also made as a drink. Types of tomatoes include globe tomatoes, beefsteak tomatoes, oxheart tomatoes, plum tomatoes, cherry tomatoes and campari tomatoes. Did you ever know that there were so many varieties?</t>
   </si>
   <si>
-    <t>Health benefits of onion</t>
-  </si>
-  <si>
-    <t>Cabbage Consumption</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Onion can be eaten raw, cooked or pickled. Onions are praised for its amazing health benifits. Onion is good for eyes, good for heart, cleans kidney, reduces the body swelling, leps in digestion and reduces body pains. In all onion is a healthy food and we have to accept it. </t>
-  </si>
-  <si>
     <t>tomato_health.jpg</t>
   </si>
   <si>
-    <t>Cabbage is aleafy vegetable. It can be eaten raw or cooked. Cabbage is used widely in variety of dishes across the world. Cabbage can be steamed, boiled, braised, microwaved, stuffed or stir fried. It's alwats been one of the favorite vegetables. Hope you like it too!</t>
-  </si>
-  <si>
     <t>Health benefits of tomato</t>
   </si>
   <si>
     <t xml:space="preserve">Tomatoes are the major dietry source. It has many health benifts. Eating tomatoes reduce the risk of heart disease and cancer. Tomatoes are good for eye health, skin, constipation and diabetes. Most importantly, tomatoes are tasty. </t>
   </si>
   <si>
-    <t>Health benefits of cabbage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cabbage carries lots of health benifits. Did you know that cabbage is good for your bones? Yes, that's true. Cabbage promotes healthy bones. There is a chance of less infections if cabbage is often used in meals. Eating cabbage is good for heart as it controls blood pressure. Cabbage also helps in curing the stomach and intestine diseases. It also protects the body from cancer. </t>
+    <t>tomatoes_fact</t>
   </si>
   <si>
     <t>Some important facts</t>
-  </si>
-  <si>
-    <t>tomatoes_fact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cutting of onions will bring tears in your eyes. Is it because you are feeling sorry for the onion. No, not at all. onions have sulphuric acid in them which burns your eyes. Don't worry it is not dangerous to eat.
-Did you know that placing a layer of sliced and cooked onion on your chest and wrapping yourself in blanket will help you get rid of fever and cough? So now you have the instant home medicine.
-Onions are 97% water. Now you know why it's good for health!
-Largest onion ever grown weighed 5 kgs. 
-Yellow onion is the most famous kind of onion. 
-Don't ignore this. Onions can be deadly to dogs. They reduce the blood cells and slows down the circulation. This might kill the animal. </t>
-  </si>
-  <si>
-    <t>Did you know that cabbage can be applied externally on wounds? This is true. Cabbage application can heal the wounds.
-Cabbage has been part of human diet for more than 1000 years. Cabbage has absolutely no fat so it is preferred to be the best diet food.
-Red cabbage tastes like green cabbage. But, did you know that red cabbage bleeds its colour to other food when cooked. 
-The heaviest cabbage weighed 62. 71 kgs and its a record.</t>
   </si>
   <si>
     <t>Tomatoes can be kept longer if it's stored with their stem down.
@@ -218,238 +123,163 @@
 La tomatino is the tomato festival that is celebrated in spain. Having fun with lots and lots of tomatoes. Wow! that should be amazing.</t>
   </si>
   <si>
+    <t>select</t>
+  </si>
+  <si>
+    <t>tomato_fruit</t>
+  </si>
+  <si>
+    <t>Is tomato a fruit?</t>
+  </si>
+  <si>
+    <t>answer</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>leaves_tomatoes.jpg</t>
+  </si>
+  <si>
+    <t>Leaves of the tomato are ___________.</t>
+  </si>
+  <si>
+    <t>Poisonous</t>
+  </si>
+  <si>
+    <t>tasty</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>tomato_varieties.jpg</t>
+  </si>
+  <si>
+    <t>There are around ___________ varieties of tomatoes.</t>
+  </si>
+  <si>
+    <t>tomatoes_eaten.jpg</t>
+  </si>
+  <si>
+    <t>Can tomatoes be eaten in many ways?</t>
+  </si>
+  <si>
     <t>match</t>
   </si>
   <si>
-    <t>select</t>
-  </si>
-  <si>
     <t>Match the names with the pictures</t>
   </si>
   <si>
+    <t>seed</t>
+  </si>
+  <si>
+    <t>tomato_seed.jpg</t>
+  </si>
+  <si>
+    <t>plant</t>
+  </si>
+  <si>
+    <t>tomato_plant.png</t>
+  </si>
+  <si>
+    <t>leaf</t>
+  </si>
+  <si>
+    <t>tomato_leaf.jpg</t>
+  </si>
+  <si>
+    <t>tomato</t>
+  </si>
+  <si>
+    <t>tomato.jpg</t>
+  </si>
+  <si>
+    <t>Cabbage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doesn't it look like a bunch of leaves wrapped together like a ball? You guessed it right! It is cabbage, one of the healthiest vegetable. This vegetable has been grown around the world for thousands of years and can be found in variety of dishes. </t>
+  </si>
+  <si>
+    <t>I can draw a cabbage</t>
+  </si>
+  <si>
+    <t>Using the drawing tools, draw a cabbage and colour it.</t>
+  </si>
+  <si>
+    <t>template of cabbages</t>
+  </si>
+  <si>
+    <t>My garden of colourful cabbages</t>
+  </si>
+  <si>
+    <t>Use different colours to colour the cabbages in the garden.</t>
+  </si>
+  <si>
+    <t>Cabbage faces</t>
+  </si>
+  <si>
+    <t>Using the drawing tools, create different faces for the cabbages. Add a smiling, crying, scared, laughing any kind of emotions for the cabbages.</t>
+  </si>
+  <si>
+    <t>Let's explore the vegetable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cabbage is the most popular vegetables in the world. It can grow in wide range of climatic conditions and soil type. It is easy to grow and preserve a cabbage. Cabbage comes in different shapes and colours. Red, purple, white and green are the different colours. The cabbage leaves can either be crinkled or smooth. </t>
+  </si>
+  <si>
+    <t>Cabbage Consumption</t>
+  </si>
+  <si>
+    <t>Cabbage is aleafy vegetable. It can be eaten raw or cooked. Cabbage is used widely in variety of dishes across the world. Cabbage can be steamed, boiled, braised, microwaved, stuffed or stir fried. It's alwats been one of the favorite vegetables. Hope you like it too!</t>
+  </si>
+  <si>
+    <t>Health benefits of cabbage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cabbage carries lots of health benifits. Did you know that cabbage is good for your bones? Yes, that's true. Cabbage promotes healthy bones. There is a chance of less infections if cabbage is often used in meals. Eating cabbage is good for heart as it controls blood pressure. Cabbage also helps in curing the stomach and intestine diseases. It also protects the body from cancer. </t>
+  </si>
+  <si>
+    <t>Did you know that cabbage can be applied externally on wounds? This is true. Cabbage application can heal the wounds.
+Cabbage has been part of human diet for more than 1000 years. Cabbage has absolutely no fat so it is preferred to be the best diet food.
+Red cabbage tastes like green cabbage. But, did you know that red cabbage bleeds its colour to other food when cooked. 
+The heaviest cabbage weighed 62. 71 kgs and its a record.</t>
+  </si>
+  <si>
     <t>cabbage_diet.jpg</t>
   </si>
   <si>
-    <t>tomato_fruit</t>
-  </si>
-  <si>
     <t>Is cabbage a diet food?</t>
   </si>
   <si>
-    <t>Is tomato a fruit?</t>
-  </si>
-  <si>
-    <t>answer</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>leaves_tomatoes.jpg</t>
-  </si>
-  <si>
-    <t>Leaves of the tomato are ___________.</t>
+    <t>cabbage_leafy.jpg</t>
+  </si>
+  <si>
+    <t>Cabbage is a _______ vegetable.</t>
+  </si>
+  <si>
+    <t>leafy</t>
   </si>
   <si>
     <t>root</t>
   </si>
   <si>
-    <t>cabbage_leafy.jpg</t>
-  </si>
-  <si>
-    <t>Cabbage is a _______ vegetable.</t>
-  </si>
-  <si>
-    <t>image of onion root</t>
-  </si>
-  <si>
-    <t>bulb</t>
-  </si>
-  <si>
-    <t>image of onion bulb</t>
-  </si>
-  <si>
-    <t>leafy</t>
-  </si>
-  <si>
-    <t>Poisonous</t>
-  </si>
-  <si>
-    <t>onion</t>
-  </si>
-  <si>
-    <t>tasty</t>
-  </si>
-  <si>
-    <t>image of onion</t>
-  </si>
-  <si>
     <t>unhealthy</t>
   </si>
   <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>Onion grows ___________ the ground.</t>
-  </si>
-  <si>
     <t>cabbage_healthy.jpg</t>
   </si>
   <si>
-    <t>tomato_varieties.jpg</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cabbage promotes healthy __________. </t>
   </si>
   <si>
-    <t>There are around ___________ varieties of tomatoes.</t>
-  </si>
-  <si>
-    <t>under</t>
-  </si>
-  <si>
     <t>bones</t>
   </si>
   <si>
-    <t>above</t>
-  </si>
-  <si>
-    <t>beside</t>
-  </si>
-  <si>
-    <t>O n i ___ n</t>
-  </si>
-  <si>
-    <t>o</t>
-  </si>
-  <si>
     <t>hands</t>
-  </si>
-  <si>
-    <t>tomatoes_eaten.jpg</t>
-  </si>
-  <si>
-    <t>Can tomatoes be eaten in many ways?</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>b __ l b</t>
-  </si>
-  <si>
-    <t>seed</t>
-  </si>
-  <si>
-    <t>tomato_seed.jpg</t>
-  </si>
-  <si>
-    <t>plant</t>
-  </si>
-  <si>
-    <t>skin</t>
-  </si>
-  <si>
-    <t>tomato_plant.png</t>
-  </si>
-  <si>
-    <t>leaf</t>
-  </si>
-  <si>
-    <t>cabbage_eaten.jpg</t>
-  </si>
-  <si>
-    <t>Can cabbage be eaten in many ways?</t>
-  </si>
-  <si>
-    <t>tomato_leaf.jpg</t>
-  </si>
-  <si>
-    <t>i</t>
-  </si>
-  <si>
-    <t>tomato</t>
-  </si>
-  <si>
-    <t>w a ___ e r</t>
-  </si>
-  <si>
-    <t>tomato.jpg</t>
-  </si>
-  <si>
-    <t>t</t>
-  </si>
-  <si>
-    <t>cabbage core</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>cabbage_core.png</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>cabbage plant</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>cabbage_plant.jpg</t>
-  </si>
-  <si>
-    <t>h e ___ l t h y</t>
-  </si>
-  <si>
-    <t>cabbage leaf</t>
-  </si>
-  <si>
-    <t>cabbage_leaf.jpg</t>
-  </si>
-  <si>
-    <t>cabbage</t>
-  </si>
-  <si>
-    <t>cabbage.jpg</t>
-  </si>
-  <si>
-    <t>t e a ___ s</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>j</t>
-  </si>
-  <si>
-    <t>Purple, ___________ and yellow are the colours of the onion.</t>
-  </si>
-  <si>
-    <t>white</t>
-  </si>
-  <si>
-    <t>blue</t>
-  </si>
-  <si>
-    <t>black</t>
-  </si>
-  <si>
-    <t>orange</t>
   </si>
   <si>
     <t>Banana</t>
@@ -533,112 +363,291 @@
     <t>Indians</t>
   </si>
   <si>
+    <t>skin</t>
+  </si>
+  <si>
     <t>Americans</t>
   </si>
   <si>
     <t>A bunch of bananas is called as a hand.</t>
   </si>
   <si>
+    <t>cabbage_eaten.jpg</t>
+  </si>
+  <si>
+    <t>Can cabbage be eaten in many ways?</t>
+  </si>
+  <si>
     <t>banana</t>
   </si>
   <si>
+    <t>cabbage core</t>
+  </si>
+  <si>
     <t xml:space="preserve">image of a banana </t>
   </si>
   <si>
+    <t>cabbage_core.png</t>
+  </si>
+  <si>
     <t>plantain</t>
   </si>
   <si>
+    <t>cabbage plant</t>
+  </si>
+  <si>
     <t>image of a plantain</t>
   </si>
   <si>
+    <t>cabbage_plant.jpg</t>
+  </si>
+  <si>
+    <t>cabbage leaf</t>
+  </si>
+  <si>
     <t>image of a leaf</t>
   </si>
   <si>
+    <t>cabbage_leaf.jpg</t>
+  </si>
+  <si>
     <t>stem</t>
   </si>
   <si>
+    <t>cabbage</t>
+  </si>
+  <si>
     <t>image of a stem</t>
   </si>
   <si>
+    <t>cabbage.jpg</t>
+  </si>
+  <si>
+    <t>Onion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Onions are one of the ancient food known to human race. It's the most used vegetable all over the world. It is a member of the bulb family. That is because the most important part of the onion the bulb, grows under the ground. There are 27 different varieties of onion and it's one of the easiest vegetable to grow. </t>
+  </si>
+  <si>
+    <t>I can draw an onion plant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using the drawing tools, draw a plant showing the onions under ground. </t>
+  </si>
+  <si>
+    <t>Tri colour onion basket</t>
+  </si>
+  <si>
+    <t>Draw a basket full of onions. Colour the onions in purple, yellow and white colours.</t>
+  </si>
+  <si>
+    <t>Image of a snail (for reference)</t>
+  </si>
+  <si>
+    <t>A farm of Onion Snails</t>
+  </si>
+  <si>
+    <t>Look at the image of snail. Using drawing tools create a farm of onion snails. Colour the onions as desired. Make it colourful with snails all around.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Onion was cultivated 7000 years back. It's a fact that onion is widely used all over the world. Onions differ in size, shape, colour and taste. Apart from its taste it also adds health benifits. Onions develop roots, bulb and green leaves. Both bulb and leaves are used except the roots. Onions can be round, egg like or torpedo shaped. They grow in purple, white and yellow colour. pearl onions, bermuda onions, egyptian onions, green onions, vidalia onions, super-sweets, shallots and scallions are the different varieties of onions. </t>
+  </si>
+  <si>
+    <t>Health benefits of onion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Onion can be eaten raw, cooked or pickled. Onions are praised for its amazing health benifits. Onion is good for eyes, good for heart, cleans kidney, reduces the body swelling, leps in digestion and reduces body pains. In all onion is a healthy food and we have to accept it. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cutting of onions will bring tears in your eyes. Is it because you are feeling sorry for the onion. No, not at all. onions have sulphuric acid in them which burns your eyes. Don't worry it is not dangerous to eat.
+Did you know that placing a layer of sliced and cooked onion on your chest and wrapping yourself in blanket will help you get rid of fever and cough? So now you have the instant home medicine.
+Onions are 97% water. Now you know why it's good for health!
+Largest onion ever grown weighed 5 kgs. 
+Yellow onion is the most famous kind of onion. 
+Don't ignore this. Onions can be deadly to dogs. They reduce the blood cells and slows down the circulation. This might kill the animal. </t>
+  </si>
+  <si>
+    <t>image of onion root</t>
+  </si>
+  <si>
+    <t>bulb</t>
+  </si>
+  <si>
+    <t>image of onion bulb</t>
+  </si>
+  <si>
+    <t>onion</t>
+  </si>
+  <si>
+    <t>image of onion</t>
+  </si>
+  <si>
+    <t>Onion grows ___________ the ground.</t>
+  </si>
+  <si>
+    <t>under</t>
+  </si>
+  <si>
+    <t>above</t>
+  </si>
+  <si>
+    <t>beside</t>
+  </si>
+  <si>
+    <t>O n i ___ n</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>b __ l b</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>w a ___ e r</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>h e ___ l t h y</t>
+  </si>
+  <si>
+    <t>t e a ___ s</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>Purple, ___________ and yellow are the colours of the onion.</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>orange</t>
+  </si>
+  <si>
     <t>Pineapple</t>
   </si>
   <si>
+    <t>Orange</t>
+  </si>
+  <si>
     <t xml:space="preserve">Everyone agree when a pineapple is called by the name spiky fruit. True, this is a weird fruit with a crown of spikes. It's actually scary to buy a pineapple. The small spokes all around the fruit is sharp and painful when poked. But, let's agree that it is a tasty fruit and we all love to eat one. </t>
   </si>
   <si>
+    <t>Who doesn't crave for oranges? From small kids to old people everyone love oranges. The taste is a treat for the taste buds. Besides being everyones favorite this citrus fruit has many other health benifits. Let's all agree that we love the taste of the citrus king.</t>
+  </si>
+  <si>
     <t>Hey! how's my spiky fruit?</t>
   </si>
   <si>
+    <t>King of Citrus</t>
+  </si>
+  <si>
     <t>Using the drawing tools, draw a pineapple. Add colours of your choice.</t>
   </si>
   <si>
+    <t>Using the drawing tools, draw an orange and colour it. Add a crown to the king of citrus.</t>
+  </si>
+  <si>
     <t>template of a pineapple</t>
   </si>
   <si>
+    <t>Template of an orange tree with oranges</t>
+  </si>
+  <si>
     <t>Let's practice some colouring</t>
   </si>
   <si>
+    <t>Colouring Fun</t>
+  </si>
+  <si>
     <t>Colour the picture of the pineapple using the colours of your choice.</t>
   </si>
   <si>
+    <t>Colour the picture using the colours of your choice.</t>
+  </si>
+  <si>
+    <t>Template of an orange</t>
+  </si>
+  <si>
+    <t>A family of Oranges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using the drawing tools and the given template, create an orange family. Add arms, legs, and face for the oranges. </t>
+  </si>
+  <si>
     <t>Jack -o-lanterns</t>
   </si>
   <si>
-    <t>Orange</t>
-  </si>
-  <si>
     <t xml:space="preserve">Using the drawing tools create hallow eyes and mouth on the given pineapple. Fill in colours and add details to create a scary lantern. </t>
   </si>
   <si>
-    <t>Who doesn't crave for oranges? From small kids to old people everyone love oranges. The taste is a treat for the taste buds. Besides being everyones favorite this citrus fruit has many other health benifits. Let's all agree that we love the taste of the citrus king.</t>
+    <t>orange-1.jpg</t>
+  </si>
+  <si>
+    <t>Important Introduction</t>
   </si>
   <si>
     <t>An amazing introduction</t>
   </si>
   <si>
-    <t>King of Citrus</t>
+    <t xml:space="preserve">An orange is a citrus fruit. It is also called as sweet orange. This is to diffrentiate the orange from the bitter orange. Now, this is interesting... keep reading. Oranges don't really exist in nature. Its the hybrid of two different fruit; pamelo and mandarin. When you closely look at an orange fruit along with the other two citrus fruit the concept is understood. Pamelo is a large green citrus fruit. It has a tough skin and a fibrous flesh. Mandarin is thin skinned, bright orange and very sweet. Hence the orange falls somewhere in between. </t>
   </si>
   <si>
     <t>Now this is truly interesting. Pineapple is a multiple fruit, with multiple berries all arranged in a pattern. A pineapple can take upto 3 years for growing  and becoming mature on a plant.  Now you know, why it's priced so high! Pineapples are delicious tropical fruit. There are more than a hundered varieties of pineapples that grow in different sizes. Not a big number compared to bananas, but still quiet a big number. Pineapple plants have beautiful flowers that vary from lavender to light purple to red. When the fruit is created it usually produces upto 200 flowers. That is a great number! These flowers join together to form one big fruit, which we call pineapple. Isn't this an amazing creation!</t>
   </si>
   <si>
-    <t>Using the drawing tools, draw an orange and colour it. Add a crown to the king of citrus.</t>
-  </si>
-  <si>
-    <t>Template of an orange tree with oranges</t>
-  </si>
-  <si>
     <t>Pineapple and a little more</t>
   </si>
   <si>
-    <t>Colouring Fun</t>
+    <t>https://www.pexels.com/photo/fruits-orange-fruit-royalty-free-87047/</t>
   </si>
   <si>
     <t xml:space="preserve">Have you ever seen a pineapple plantation? It's an amazing sight. The pineapple plants look like giant, burried pineapples. Planting a pineapple is quiet simple and easy. Cut off the top of the pineapple and plant it in the soil. Baby pineapples are the most addorable fruit you ever see growing. It's a treat for the eyes to see the little pineapples sprouting off the leaves of its mamma plant. Once harvested pineapples don't ripe anymore. That means every single pineapple that we buy in the market is as ripe as it will ever be. </t>
   </si>
   <si>
-    <t>Colour the picture using the colours of your choice.</t>
-  </si>
-  <si>
     <t>Health benefits of a pineapple</t>
   </si>
   <si>
-    <t>Template of an orange</t>
-  </si>
-  <si>
     <t>Pineapple being the tropical fruit is rich in nutrients. Eating pineapple improves the respiratory health, cures cough and cold, improves digestion, helps in losing weight, strengthen bones, improve oral health, improves eye health, reduce swelling, prevents cancer, improves heart health and fights off the infections. The flesh and juice of the fruit is vastly used around the world. Pineapple is prepared and sold as snack on roadside. Chunks of pineapple are used in fruit salad, desserts and in almost many dishes. Crushed pineapple is used in yogurt, jam and ice-creams. And who have not tasted pineapple juice? Yes, a scary fruit has all these health benifits and we never knew.</t>
   </si>
   <si>
-    <t>A family of Oranges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Using the drawing tools and the given template, create an orange family. Add arms, legs, and face for the oranges. </t>
-  </si>
-  <si>
     <t>Spiky fruit facts</t>
-  </si>
-  <si>
-    <t>orange-1.jpg</t>
   </si>
   <si>
     <t>One pineapple plant can produce only one pineapple at a time. 
@@ -648,40 +657,49 @@
 The skin, core and ends of the pineapple are not discarded. All of these are used in making vinegar, alcohol and animal food.Wow! the whole fruit is useful.</t>
   </si>
   <si>
-    <t>Important Introduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An orange is a citrus fruit. It is also called as sweet orange. This is to diffrentiate the orange from the bitter orange. Now, this is interesting... keep reading. Oranges don't really exist in nature. Its the hybrid of two different fruit; pamelo and mandarin. When you closely look at an orange fruit along with the other two citrus fruit the concept is understood. Pamelo is a large green citrus fruit. It has a tough skin and a fibrous flesh. Mandarin is thin skinned, bright orange and very sweet. Hence the orange falls somewhere in between. </t>
-  </si>
-  <si>
     <t>A pineapple can take upto 10 years for growing and becoming mature as a plant.</t>
   </si>
   <si>
+    <t xml:space="preserve">The juice from unripe pineapple cause severe __________. </t>
+  </si>
+  <si>
+    <t>vomiting</t>
+  </si>
+  <si>
+    <t>headache</t>
+  </si>
+  <si>
     <t>citrus-fruits-honeybell.jpg</t>
   </si>
   <si>
     <t>Let's peel into an orange</t>
   </si>
   <si>
+    <t>body pains</t>
+  </si>
+  <si>
     <t xml:space="preserve">Oranges are sweet and this is the truth. But, green oranges are also sweet. And, this is the fact. You should never judge an orange by its skin colour.  A skn of an orange doesn't give any indication of flavour or ripeness. Cool nights can turn the fruit from green to orange, but a heat wave can turn it back to green. A firm fresh looking fruit is always sweet no matter it is green or orange. </t>
   </si>
   <si>
     <t>orange-juice.jpg</t>
   </si>
   <si>
+    <t xml:space="preserve">Nearly _______ flowers join together to form one pineapple. </t>
+  </si>
+  <si>
     <t>Health benefits of an Orange</t>
   </si>
   <si>
     <t xml:space="preserve">A morning without an orange juice is not a healthy morning. This saying is true. Oranges have a bunch of healthy facts. Oranges will reduce the risk of cancer. This fruit is good in prevention of cold and recurrent ear infections. Eating oranges protects the skin from aging  and maintains the glow. Oranges helps in production of blood cells and prevents blood pressure. It controls the blood sugar. helps in digestion. wow! thats truly a lot of help. last but not the least, oranges are good for eye health. </t>
   </si>
   <si>
+    <t>https://pixabay.com/en/orange-juice-juice-vitamins-orange-3190678/</t>
+  </si>
+  <si>
     <t>branches-citrus.jpg</t>
   </si>
   <si>
     <t>Facts to be noted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The juice from unripe pineapple cause severe __________. </t>
   </si>
   <si>
     <t xml:space="preserve">Orange trees are evergreen. It's a real treat to the eyes to see a tree with green leaves, orange and green oranges. 
@@ -694,88 +712,97 @@
     <t>oranges-tree.jpg</t>
   </si>
   <si>
-    <t>vomiting</t>
-  </si>
-  <si>
     <t>An orange tree can live for over 100 years.</t>
   </si>
   <si>
-    <t>headache</t>
-  </si>
-  <si>
-    <t>body pains</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nearly _______ flowers join together to form one pineapple. </t>
+    <t>https://pixabay.com/en/oranges-fruits-orange-tree-1117628/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pineapple is prepared and sold as snack on the roadside. </t>
+  </si>
+  <si>
+    <t>An orange is a __________ fruit.</t>
+  </si>
+  <si>
+    <t>citrus</t>
+  </si>
+  <si>
+    <t>pineapple</t>
+  </si>
+  <si>
+    <t>image of a pineapple</t>
+  </si>
+  <si>
+    <t>crown</t>
+  </si>
+  <si>
+    <t>appetizing-citrus.jpg</t>
+  </si>
+  <si>
+    <t>image of a pineapple crown</t>
+  </si>
+  <si>
+    <t>Orange is the ___________ of two different citrus fruit.</t>
+  </si>
+  <si>
+    <t>hybrid</t>
+  </si>
+  <si>
+    <t>image of a pineapple skin</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>flesh</t>
+  </si>
+  <si>
+    <t>large</t>
+  </si>
+  <si>
+    <t>image of a pineapple flesh</t>
+  </si>
+  <si>
+    <t>orange-tree-114.jpg</t>
+  </si>
+  <si>
+    <t>Orange trees are evergreen.</t>
+  </si>
+  <si>
+    <t>https://pixabay.com/en/orange-tree-oranges-tree-fruit-1149584/</t>
+  </si>
+  <si>
+    <t>Match the names with their images.</t>
+  </si>
+  <si>
+    <t>flower</t>
+  </si>
+  <si>
+    <t>orange-tree-flower.jpg</t>
+  </si>
+  <si>
+    <t>https://pixabay.com/en/orange-tree-flower-orange-tree-1645816/</t>
+  </si>
+  <si>
+    <t>orange-leaf.jpg</t>
+  </si>
+  <si>
+    <t>https://www.pexels.com/photo/person-s-hand-holding-orange-fruit-1114797/</t>
+  </si>
+  <si>
+    <t>fruit</t>
   </si>
   <si>
     <t>orange-fruit.jpg</t>
   </si>
   <si>
-    <t>An orange is a __________ fruit.</t>
-  </si>
-  <si>
-    <t>citrus</t>
-  </si>
-  <si>
-    <t>appetizing-citrus.jpg</t>
-  </si>
-  <si>
-    <t>Orange is the ___________ of two different citrus fruit.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pineapple is prepared and sold as snack on the roadside. </t>
-  </si>
-  <si>
-    <t>hybrid</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>large</t>
-  </si>
-  <si>
-    <t>orange-tree-114.jpg</t>
-  </si>
-  <si>
-    <t>Orange trees are evergreen.</t>
-  </si>
-  <si>
-    <t>pineapple</t>
-  </si>
-  <si>
-    <t>image of a pineapple</t>
-  </si>
-  <si>
-    <t>crown</t>
-  </si>
-  <si>
-    <t>Match the names with their images.</t>
-  </si>
-  <si>
-    <t>image of a pineapple crown</t>
-  </si>
-  <si>
-    <t>flower</t>
-  </si>
-  <si>
-    <t>orange-tree-flower.jpg</t>
-  </si>
-  <si>
-    <t>image of a pineapple skin</t>
-  </si>
-  <si>
-    <t>flesh</t>
-  </si>
-  <si>
-    <t>orange-leaf.jpg</t>
-  </si>
-  <si>
-    <t>image of a pineapple flesh</t>
-  </si>
-  <si>
-    <t>fruit</t>
+    <t>https://www.pexels.com/photo/orange-fruit-161559/</t>
+  </si>
+  <si>
+    <t>orange-seed.jpg</t>
+  </si>
+  <si>
+    <t>https://www.pexels.com/photo/bright-close-up-colors-cut-287145/</t>
   </si>
   <si>
     <t>Maize</t>
@@ -788,9 +815,6 @@
   </si>
   <si>
     <t>Using the drawing tools, draw a maize and colour it yellow</t>
-  </si>
-  <si>
-    <t>orange-seed.jpg</t>
   </si>
   <si>
     <t>Template of a maize</t>
@@ -855,139 +879,118 @@
     <t>A maize is a __________ grain.</t>
   </si>
   <si>
+    <t>Wheat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Let us agree that we all love that great slice of bread. Brown bread, milk bread, whole wheat bread, sweet bread and what not. But rarely do we think about where it comes from. Wheat belongs to the family of grasses. Having a strong foot in the history, wheat originates from Eupharates valley. It is part of human diet at least 9000 years. </t>
+  </si>
+  <si>
     <t>cereal</t>
   </si>
   <si>
+    <t>Wheat food</t>
+  </si>
+  <si>
     <t>vegetable</t>
   </si>
   <si>
-    <t>agriculture-close-up-corn-field.jpg</t>
+    <t>Using drawing tools, draw the pictures of the food that we get from wheat.</t>
+  </si>
+  <si>
+    <t>Template of a wheat plant</t>
+  </si>
+  <si>
+    <t>Colour the picture of the wheat plant using the colours of your choice.</t>
+  </si>
+  <si>
+    <t>template of a bread</t>
   </si>
   <si>
     <t>Maize growing is considered to be the  _____________ cultivation of Africa.</t>
   </si>
   <si>
+    <t>The wheat food faces</t>
+  </si>
+  <si>
+    <t>Draw faces on the given food templates.</t>
+  </si>
+  <si>
+    <t>template</t>
+  </si>
+  <si>
     <t>national</t>
   </si>
   <si>
+    <t>biscuits.jpg</t>
+  </si>
+  <si>
     <t>domestic</t>
   </si>
   <si>
+    <t>wheat-cake.jpg</t>
+  </si>
+  <si>
+    <t>cookies-wheat.jpg</t>
+  </si>
+  <si>
     <t>international</t>
   </si>
   <si>
-    <t>corn-on-the-cob22.jpg</t>
-  </si>
-  <si>
     <t>On an average the cob has 1000 kernels arranged in 16 rows.</t>
   </si>
   <si>
+    <t>wheat-35.jpg</t>
+  </si>
+  <si>
+    <t>The wheat Story</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wheat originated more than 17,000 years ago. Early man gathered the seeds of the plant and ate them. After rubbing off the husks people simply chewed the kernels raw, parched or simmered. With advanced technology people started to grind wheat to produce flour. Wheat is a cereal grain that was domesticated from wild grass. There are many varieties of wheat. But, finally all the types can be divided into two major groups; spring and winter wheat. Wheat is the most important and essential food in today's world. </t>
+  </si>
+  <si>
+    <t>Rice</t>
+  </si>
+  <si>
+    <t>wheat-harvest.jpg</t>
+  </si>
+  <si>
+    <t>Understanding the cereal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rice is the second largest worldwide production. It is the most sought after food of man across the world. Having more than 40,000 varieties, rice grow across every continent except Antartica. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wheat is the cereal which is cultivated all over the world. Wheat can grow almost anywhere in the world from sea level to 4,000 metres above sea level. Harvesting a wheat field consists of three parts; reaping, threshing and winnowing. Size of a wheat depends on the variety. Wheat usually reaches 2 to 4 feet in height. Wheat is an annual plant, which means it finish it's life cycle in one year. </t>
+  </si>
+  <si>
+    <t>baked-bakery-wheat.jpg</t>
+  </si>
+  <si>
+    <t>Women's crop</t>
+  </si>
+  <si>
+    <t>Wheat and Eat</t>
+  </si>
+  <si>
+    <t>Using the drawing tools, create picture of women cultivating rice plantation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apart from being one of the important food in the world, wheat has a good number of benificial health factors. Wheat is the third largest worldwide production after rice. Wheat can sustain life when other foods are unavailable. Wheat is the most nutricious grain. The health benefits of wheat depends entirely on the form in which it is eaten. Foods like bread, pasta, crackers, bagels, pancakes, pies, patries, cakes, cookies, muffins, chapathis and breakfast cereals are just a few common examples of wheat source. </t>
+  </si>
+  <si>
+    <t>Template of rice cultivation</t>
+  </si>
+  <si>
+    <t>flour.jpg</t>
+  </si>
+  <si>
+    <t>The Wheat Facts</t>
+  </si>
+  <si>
+    <t>Colour the picture of the rice cultivation using the colours of your choice.</t>
+  </si>
+  <si>
     <t>silk</t>
-  </si>
-  <si>
-    <t>maize-silk.jpg</t>
-  </si>
-  <si>
-    <t>kernels</t>
-  </si>
-  <si>
-    <t>corn-kernels.jpg</t>
-  </si>
-  <si>
-    <t>cob</t>
-  </si>
-  <si>
-    <t>corn-on-the-cob.jpg</t>
-  </si>
-  <si>
-    <t>maize plant</t>
-  </si>
-  <si>
-    <t>cornfield-plant.jpg</t>
-  </si>
-  <si>
-    <t>Rice</t>
-  </si>
-  <si>
-    <t>Wheat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rice is the second largest worldwide production. It is the most sought after food of man across the world. Having more than 40,000 varieties, rice grow across every continent except Antartica. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Let us agree that we all love that great slice of bread. Brown bread, milk bread, whole wheat bread, sweet bread and what not. But rarely do we think about where it comes from. Wheat belongs to the family of grasses. Having a strong foot in the history, wheat originates from Eupharates valley. It is part of human diet at least 9000 years. </t>
-  </si>
-  <si>
-    <t>Women's crop</t>
-  </si>
-  <si>
-    <t>Using the drawing tools, create picture of women cultivating rice plantation</t>
-  </si>
-  <si>
-    <t>Template of rice cultivation</t>
-  </si>
-  <si>
-    <t>Colour the picture of the rice cultivation using the colours of your choice.</t>
-  </si>
-  <si>
-    <t>Wheat food</t>
-  </si>
-  <si>
-    <t>Using drawing tools, draw the pictures of the food that we get from wheat.</t>
-  </si>
-  <si>
-    <t>A bowl of Rice</t>
-  </si>
-  <si>
-    <t>Template of a wheat plant</t>
-  </si>
-  <si>
-    <t>Draw a bowl of rice and add colours of your choice.</t>
-  </si>
-  <si>
-    <t>Colour the picture of the wheat plant using the colours of your choice.</t>
-  </si>
-  <si>
-    <t>A Little Rice Talk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The whole world claims to love rice. </t>
-  </si>
-  <si>
-    <t>template of a bread</t>
-  </si>
-  <si>
-    <t>The wheat food faces</t>
-  </si>
-  <si>
-    <t>Understanding the cereal</t>
-  </si>
-  <si>
-    <t>Draw faces on the given food templates.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wheat is the cereal which is cultivated all over the world. Wheat can grow almost anywhere in the world from sea level to 4,000 metres above sea level. Harvesting a wheat field consists of three parts; reaping, threshing and winnowing. Size of a wheat depends on the variety. Wheat usually reaches 2 to 4 feet in height. Wheat is an annual plant, which means it finish it's life cycle in one year. </t>
-  </si>
-  <si>
-    <t>template</t>
-  </si>
-  <si>
-    <t>biscuits.jpg</t>
-  </si>
-  <si>
-    <t>Wheat and Eat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apart from being one of the important food in the world, wheat has a good number of benificial health factors. Wheat can sustain life when other foods are unavailable. Wheat is the most nutricious grain. The health benefits of wheat depends entirely on the form in which it is eaten. Foods like bread, pasta, crackers, bagels, pancakes, pies, patries, cakes, cookies, muffins, chapathis and breakfast cereals are just a few common examples of wheat source. Wheat is the third largest worldwide production after rice. </t>
-  </si>
-  <si>
-    <t>wheat-cake.jpg</t>
-  </si>
-  <si>
-    <t>The Wheat Facts</t>
-  </si>
-  <si>
-    <t>cookies-wheat.jpg</t>
   </si>
   <si>
     <t>Wheat is grouped into six types;hard red winter, hard red spring, soft red winter, durum, hard white and soft white. 
@@ -998,39 +1001,105 @@
 Kernels come in different colour which depend on their variety. It can be red, blue, purple, brown or white.</t>
   </si>
   <si>
-    <t>wheat-35.jpg</t>
-  </si>
-  <si>
-    <t>The wheat Story</t>
+    <t>A bowl of Rice</t>
+  </si>
+  <si>
+    <t>Draw a bowl of rice and add colours of your choice.</t>
+  </si>
+  <si>
+    <t>maize-silk.jpg</t>
+  </si>
+  <si>
+    <t>agriculture-barley-cereal.jpg</t>
   </si>
   <si>
     <t>Wheat is grouped into 10 types.</t>
   </si>
   <si>
-    <t xml:space="preserve">Wheat originated more than 17,000 years ago. Early man gathered the seeds of the plant and ate them. After rubbing off the husks people simply chewed the kernels raw, parched or simmered. With advanced technology people started to grind wheat to produce flour. Wheat is a cereal grain that was domesticated from wild grass. There are many varieties of wheat. But, finally all the types can be divided into two major groups; spring and winter wheat. Wheat is the most important and essential food in today's world. </t>
-  </si>
-  <si>
-    <t>wheat-harvest.jpg</t>
+    <t>A Little Rice Talk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The whole world claims to love rice. Rice is a grain or cereal just like wheat. As a cereal grain, it is most widely consumed food for the large part of the human population. African rice has been cultivated for 3500 years.There are also varieties of African rice. The exact number is unknown but there are nearly 40,000 varieties of rice.  </t>
+  </si>
+  <si>
+    <t>Growing Rice</t>
+  </si>
+  <si>
+    <t>wheat-weight.jpg</t>
+  </si>
+  <si>
+    <t>One bushel of wheat weighs __________ pounds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rice is an annual plant that is harvested once in a year. The rice plant can grow from 1 to 1.8 metres tall. The growth completely depends on the variety and fertility of soil. The leaves are long and thin. The rice seed is edible. Rice comes in many shapes and colours. Rice can be grown practically anywhere even on a steep hill or mountain area. But, remember that rice cultivation requires more rainfall. Methods of rice growing differs in different localities. Plowing, fertilizing and smoothing is the process of cultivating. The crop matures after 105 to 150 days after crop establishment. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apart from being one of the important food in the world, wheat has a good number of benificial health factors. Wheat can sustain life when other foods are unavailable. Wheat is the most nutricious grain. The health benefits of wheat depends entirely on the form in which it is eaten. Foods like bread, pasta, crackers, bagels, pancakes, pies, patries, cakes, cookies, muffins, chapathis and breakfast cereals are just a few common examples of wheat source. Wheat is the third largest worldwide production after rice. </t>
+  </si>
+  <si>
+    <t>kernels</t>
+  </si>
+  <si>
+    <t>corn-kernels.jpg</t>
+  </si>
+  <si>
+    <t>cob</t>
+  </si>
+  <si>
+    <t>corn-on-the-cob.jpg</t>
+  </si>
+  <si>
+    <t>maize plant</t>
+  </si>
+  <si>
+    <t>cornfield-plant.jpg</t>
+  </si>
+  <si>
+    <t>agriculture-field-grain.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wheat can reach from 2 to ______ feet in height. </t>
+  </si>
+  <si>
+    <t>agriculture-arable-barley.jpg</t>
+  </si>
+  <si>
+    <t>Wheat is used to prepare hair conditioners.</t>
+  </si>
+  <si>
+    <t>barn</t>
+  </si>
+  <si>
+    <t>barn.jpg</t>
+  </si>
+  <si>
+    <t>image of barn</t>
+  </si>
+  <si>
+    <t>wheat-kernel.jpg</t>
+  </si>
+  <si>
+    <t>image of kernels</t>
+  </si>
+  <si>
+    <t>bushel</t>
+  </si>
+  <si>
+    <t>image of bushel</t>
+  </si>
+  <si>
+    <t>wheat plant</t>
+  </si>
+  <si>
+    <t>wheat-plant.jpg</t>
+  </si>
+  <si>
+    <t>image of wheat plant</t>
   </si>
   <si>
     <t>Casava</t>
   </si>
   <si>
-    <t>baked-bakery-wheat.jpg</t>
-  </si>
-  <si>
-    <t>One bushel of wheat weighs __________ pounds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apart from being one of the important food in the world, wheat has a good number of benificial health factors. Wheat is the third largest worldwide production after rice. Wheat can sustain life when other foods are unavailable. Wheat is the most nutricious grain. The health benefits of wheat depends entirely on the form in which it is eaten. Foods like bread, pasta, crackers, bagels, pancakes, pies, patries, cakes, cookies, muffins, chapathis and breakfast cereals are just a few common examples of wheat source. </t>
-  </si>
-  <si>
-    <t>flour.jpg</t>
-  </si>
-  <si>
-    <t>agriculture-barley-cereal.jpg</t>
-  </si>
-  <si>
     <t>template of a biscuit</t>
   </si>
   <si>
@@ -1040,59 +1109,14 @@
     <t>template of a cookie</t>
   </si>
   <si>
-    <t>wheat-weight.jpg</t>
-  </si>
-  <si>
     <t xml:space="preserve">Apart from being one of the important food in the world, wheat has a good number of benificial health factors. Wheat can sustain life when other foods are unavailable. Wheat is the most nutricious grain. The health benefits of wheat depends entirely on the form in which it is eaten. Foods like bread, pasta, crackers, bagels, pancakes, pies, patries, cakes, cookies, muffins, chapathis and breakfast cereals are just a few common examples of wheat source. </t>
-  </si>
-  <si>
-    <t>agriculture-field-grain.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wheat can reach from 2 to ______ feet in height. </t>
-  </si>
-  <si>
-    <t>agriculture-arable-barley.jpg</t>
-  </si>
-  <si>
-    <t>Wheat is used to prepare hair conditioners.</t>
-  </si>
-  <si>
-    <t>barn</t>
-  </si>
-  <si>
-    <t>barn.jpg</t>
-  </si>
-  <si>
-    <t>image of barn</t>
-  </si>
-  <si>
-    <t>wheat-kernel.jpg</t>
-  </si>
-  <si>
-    <t>bushel</t>
-  </si>
-  <si>
-    <t>image of kernels</t>
-  </si>
-  <si>
-    <t>image of bushel</t>
-  </si>
-  <si>
-    <t>wheat plant</t>
-  </si>
-  <si>
-    <t>image of wheat plant</t>
-  </si>
-  <si>
-    <t>wheat-plant.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
@@ -1113,6 +1137,10 @@
       <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1143,7 +1171,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1153,18 +1181,15 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -1172,10 +1197,10 @@
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
@@ -1183,7 +1208,13 @@
       <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
@@ -1287,133 +1318,133 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="F2" s="3"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="5"/>
+        <v>11</v>
+      </c>
+      <c r="B3" s="4"/>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="F3" s="3"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="F5" s="1"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>39</v>
+        <v>19</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="F6" s="1"/>
     </row>
     <row r="7" ht="118.5" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>44</v>
+        <v>19</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="F7" s="3"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>52</v>
+        <v>19</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" s="4"/>
+        <v>28</v>
+      </c>
+      <c r="F8" s="3"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>56</v>
+        <v>19</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" s="4"/>
+        <v>31</v>
+      </c>
+      <c r="F9" s="3"/>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>65</v>
+      <c r="A10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -1421,11 +1452,11 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -1437,21 +1468,21 @@
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="1"/>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>71</v>
+      <c r="A13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="6"/>
@@ -1459,11 +1490,11 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -1475,7 +1506,7 @@
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="1"/>
@@ -1487,21 +1518,21 @@
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>88</v>
+      <c r="A17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -1509,10 +1540,10 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="B18" s="1"/>
-      <c r="C18" s="12">
+      <c r="C18" s="11">
         <v>10000.0</v>
       </c>
       <c r="D18" s="6"/>
@@ -1524,7 +1555,7 @@
         <v>6</v>
       </c>
       <c r="B19" s="1"/>
-      <c r="C19" s="13">
+      <c r="C19" s="12">
         <v>50000.0</v>
       </c>
       <c r="D19" s="6"/>
@@ -1536,7 +1567,7 @@
         <v>6</v>
       </c>
       <c r="B20" s="1"/>
-      <c r="C20" s="13">
+      <c r="C20" s="12">
         <v>1000.0</v>
       </c>
       <c r="D20" s="6"/>
@@ -1544,14 +1575,14 @@
       <c r="F20" s="1"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>98</v>
+      <c r="A21" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>99</v>
+        <v>46</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
@@ -1559,11 +1590,11 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -1575,31 +1606,31 @@
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="3" t="s">
-        <v>61</v>
+      <c r="A24" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B25" s="3"/>
+      <c r="A25" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="5"/>
       <c r="C25" s="1" t="s">
-        <v>104</v>
+        <v>49</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -1607,10 +1638,10 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>105</v>
+        <v>35</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1618,12 +1649,12 @@
       <c r="F26" s="1"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="3" t="s">
-        <v>68</v>
+      <c r="A27" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>106</v>
+        <v>51</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -1631,10 +1662,10 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>108</v>
+        <v>35</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1642,12 +1673,12 @@
       <c r="F28" s="1"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="3" t="s">
-        <v>68</v>
+      <c r="A29" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -1655,10 +1686,10 @@
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>112</v>
+        <v>35</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1666,12 +1697,12 @@
       <c r="F30" s="1"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="3" t="s">
-        <v>68</v>
+      <c r="A31" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
-        <v>114</v>
+        <v>55</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -1679,10 +1710,10 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>116</v>
+        <v>35</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -2711,158 +2742,158 @@
         <v>8</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="3" t="s">
-        <v>318</v>
+      <c r="C2" s="5" t="s">
+        <v>346</v>
       </c>
       <c r="D2" s="1"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="4"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="3" t="s">
-        <v>292</v>
+        <v>11</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5" t="s">
+        <v>278</v>
       </c>
       <c r="D3" s="1"/>
-      <c r="E3" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="F3" s="4"/>
+      <c r="E3" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="F3" s="3"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>190</v>
+        <v>11</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>184</v>
       </c>
       <c r="D4" s="6"/>
-      <c r="E4" s="7" t="s">
-        <v>297</v>
+      <c r="E4" s="9" t="s">
+        <v>282</v>
       </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>301</v>
+        <v>11</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>285</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="3" t="s">
-        <v>303</v>
+      <c r="E5" s="5" t="s">
+        <v>286</v>
       </c>
       <c r="F5" s="1"/>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="C6" s="8"/>
+      <c r="A6" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="C6" s="7"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="3"/>
+      <c r="E6" s="5"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="C7" s="8"/>
+      <c r="A7" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="C7" s="7"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="3"/>
+      <c r="E7" s="5"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="C8" s="8"/>
+      <c r="A8" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="C8" s="7"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="3"/>
+      <c r="E8" s="5"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="8" t="s">
-        <v>314</v>
+        <v>19</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="7" t="s">
+        <v>296</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="3" t="s">
-        <v>316</v>
+      <c r="E9" s="5" t="s">
+        <v>297</v>
       </c>
       <c r="F9" s="1"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="F10" s="4"/>
+      <c r="F10" s="3"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="8" t="s">
-        <v>307</v>
+        <v>19</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="7" t="s">
+        <v>305</v>
       </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="F11" s="4"/>
+      <c r="E11" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="F11" s="3"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="7" t="s">
         <v>310</v>
       </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="F12" s="4"/>
+      <c r="E12" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="F12" s="3"/>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="s">
-        <v>62</v>
+      <c r="A13" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="B13" s="6"/>
-      <c r="C13" s="7" t="s">
-        <v>315</v>
+      <c r="C13" s="9" t="s">
+        <v>318</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -2870,11 +2901,11 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="B14" s="1"/>
-      <c r="C14" s="3" t="s">
-        <v>69</v>
+      <c r="C14" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -2886,19 +2917,19 @@
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="1"/>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="s">
-        <v>62</v>
+      <c r="A16" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="B16" s="1"/>
-      <c r="C16" s="3" t="s">
-        <v>320</v>
+      <c r="C16" s="5" t="s">
+        <v>323</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="6"/>
@@ -2906,10 +2937,10 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="B17" s="1"/>
-      <c r="C17" s="15">
+      <c r="C17" s="16">
         <v>60.0</v>
       </c>
       <c r="D17" s="6"/>
@@ -2921,7 +2952,7 @@
         <v>6</v>
       </c>
       <c r="B18" s="1"/>
-      <c r="C18" s="15">
+      <c r="C18" s="16">
         <v>40.0</v>
       </c>
       <c r="D18" s="6"/>
@@ -2933,7 +2964,7 @@
         <v>6</v>
       </c>
       <c r="B19" s="1"/>
-      <c r="C19" s="15">
+      <c r="C19" s="16">
         <v>100.0</v>
       </c>
       <c r="D19" s="6"/>
@@ -2941,12 +2972,12 @@
       <c r="F19" s="1"/>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="s">
-        <v>62</v>
+      <c r="A20" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="B20" s="6"/>
-      <c r="C20" s="7" t="s">
-        <v>330</v>
+      <c r="C20" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -2954,10 +2985,10 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="B21" s="1"/>
-      <c r="C21" s="11">
+      <c r="C21" s="13">
         <v>4.0</v>
       </c>
       <c r="D21" s="6"/>
@@ -2989,12 +3020,12 @@
       <c r="F23" s="1"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="3" t="s">
-        <v>62</v>
+      <c r="A24" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="B24" s="6"/>
-      <c r="C24" s="7" t="s">
-        <v>332</v>
+      <c r="C24" s="9" t="s">
+        <v>335</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
@@ -3002,11 +3033,11 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="B25" s="1"/>
-      <c r="C25" s="3" t="s">
-        <v>69</v>
+      <c r="C25" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
@@ -3017,32 +3048,32 @@
         <v>6</v>
       </c>
       <c r="B26" s="1"/>
-      <c r="C26" s="3" t="s">
-        <v>70</v>
+      <c r="C26" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="3" t="s">
-        <v>61</v>
+      <c r="A27" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="B27" s="1"/>
-      <c r="C27" s="3" t="s">
-        <v>234</v>
+      <c r="C27" s="5" t="s">
+        <v>241</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="3" t="s">
-        <v>68</v>
+      <c r="A28" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="B28" s="1"/>
-      <c r="C28" s="3" t="s">
-        <v>333</v>
+      <c r="C28" s="5" t="s">
+        <v>336</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -3050,10 +3081,10 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>335</v>
+        <v>35</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>338</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -3061,12 +3092,12 @@
       <c r="F29" s="1"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="3" t="s">
-        <v>68</v>
+      <c r="A30" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="B30" s="1"/>
-      <c r="C30" s="3" t="s">
-        <v>278</v>
+      <c r="C30" s="5" t="s">
+        <v>326</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -3074,10 +3105,10 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>338</v>
+        <v>35</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>340</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -3085,12 +3116,12 @@
       <c r="F31" s="1"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="3" t="s">
-        <v>68</v>
+      <c r="A32" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="B32" s="1"/>
-      <c r="C32" s="3" t="s">
-        <v>337</v>
+      <c r="C32" s="5" t="s">
+        <v>341</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -3098,10 +3129,10 @@
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>339</v>
+        <v>35</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>342</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -3109,12 +3140,12 @@
       <c r="F33" s="1"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="3" t="s">
-        <v>68</v>
+      <c r="A34" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="B34" s="1"/>
-      <c r="C34" s="3" t="s">
-        <v>340</v>
+      <c r="C34" s="5" t="s">
+        <v>343</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -3122,10 +3153,10 @@
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>341</v>
+        <v>35</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>345</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -4156,125 +4187,125 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="4"/>
+        <v>58</v>
+      </c>
+      <c r="F2" s="3"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="5"/>
+        <v>11</v>
+      </c>
+      <c r="B3" s="4"/>
       <c r="C3" s="1" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="4"/>
+        <v>60</v>
+      </c>
+      <c r="F3" s="3"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="F5" s="1"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9" t="s">
-        <v>41</v>
+        <v>19</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="F6" s="1"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9" t="s">
-        <v>48</v>
+        <v>19</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8" t="s">
+        <v>68</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="4"/>
+      <c r="E7" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="3"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9" t="s">
-        <v>54</v>
+        <v>19</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="D8" s="1"/>
-      <c r="E8" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F8" s="4"/>
+      <c r="E8" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="3"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9" t="s">
-        <v>56</v>
+        <v>19</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" s="4"/>
+      <c r="E9" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="3"/>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>66</v>
+      <c r="A10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>74</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -4282,11 +4313,11 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -4298,21 +4329,21 @@
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="1"/>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C13" s="3" t="s">
+      <c r="A13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>75</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="6"/>
@@ -4320,11 +4351,11 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="B14" s="1"/>
-      <c r="C14" s="3" t="s">
-        <v>79</v>
+      <c r="C14" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -4335,8 +4366,8 @@
         <v>6</v>
       </c>
       <c r="B15" s="1"/>
-      <c r="C15" s="3" t="s">
-        <v>73</v>
+      <c r="C15" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="1"/>
@@ -4347,22 +4378,22 @@
         <v>6</v>
       </c>
       <c r="B16" s="1"/>
-      <c r="C16" s="3" t="s">
-        <v>84</v>
+      <c r="C16" s="5" t="s">
+        <v>79</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>89</v>
+      <c r="A17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -4370,11 +4401,11 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="B18" s="1"/>
-      <c r="C18" s="11" t="s">
-        <v>92</v>
+      <c r="C18" s="13" t="s">
+        <v>82</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
@@ -4386,7 +4417,7 @@
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="14" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="1"/>
@@ -4398,21 +4429,21 @@
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="14" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>111</v>
+      <c r="A21" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>113</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
@@ -4420,11 +4451,11 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -4436,31 +4467,31 @@
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="3" t="s">
-        <v>61</v>
+      <c r="A24" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="3" t="s">
-        <v>68</v>
+      <c r="A25" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="B25" s="1"/>
-      <c r="C25" s="3" t="s">
-        <v>118</v>
+      <c r="C25" s="5" t="s">
+        <v>115</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -4468,10 +4499,10 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>120</v>
+        <v>35</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>117</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -4479,12 +4510,12 @@
       <c r="F26" s="1"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="3" t="s">
-        <v>68</v>
+      <c r="A27" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="B27" s="1"/>
-      <c r="C27" s="3" t="s">
-        <v>122</v>
+      <c r="C27" s="5" t="s">
+        <v>119</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -4492,10 +4523,10 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>124</v>
+        <v>35</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>121</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -4503,12 +4534,12 @@
       <c r="F28" s="1"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="3" t="s">
-        <v>68</v>
+      <c r="A29" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="B29" s="1"/>
-      <c r="C29" s="3" t="s">
-        <v>126</v>
+      <c r="C29" s="5" t="s">
+        <v>122</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -4516,10 +4547,10 @@
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>127</v>
+        <v>35</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>124</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -4527,12 +4558,12 @@
       <c r="F30" s="1"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="3" t="s">
-        <v>68</v>
+      <c r="A31" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="B31" s="1"/>
-      <c r="C31" s="3" t="s">
-        <v>128</v>
+      <c r="C31" s="5" t="s">
+        <v>126</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -4540,10 +4571,10 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>129</v>
+        <v>35</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>128</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -5572,120 +5603,120 @@
         <v>8</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
+      <c r="C2" s="5" t="s">
+        <v>129</v>
       </c>
       <c r="D2" s="1"/>
-      <c r="E2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="4"/>
+      <c r="E2" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F2" s="3"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="3" t="s">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5" t="s">
+        <v>131</v>
       </c>
       <c r="D3" s="1"/>
-      <c r="E3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="4"/>
+      <c r="E3" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F3" s="3"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="3" t="s">
-        <v>24</v>
+      <c r="C4" s="5" t="s">
+        <v>133</v>
       </c>
       <c r="D4" s="6"/>
-      <c r="E4" s="7" t="s">
-        <v>28</v>
+      <c r="E4" s="9" t="s">
+        <v>134</v>
       </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>37</v>
+        <v>11</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>136</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="3" t="s">
-        <v>38</v>
+      <c r="E5" s="5" t="s">
+        <v>137</v>
       </c>
       <c r="F5" s="1"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9" t="s">
-        <v>41</v>
+        <v>19</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="3" t="s">
-        <v>42</v>
+      <c r="E6" s="5" t="s">
+        <v>138</v>
       </c>
       <c r="F6" s="1"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="8" t="s">
-        <v>47</v>
+        <v>19</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="7" t="s">
+        <v>139</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" s="4"/>
+      <c r="E7" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F7" s="3"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9" t="s">
-        <v>56</v>
+        <v>19</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="D8" s="1"/>
-      <c r="E8" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" s="4"/>
+      <c r="E8" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="F8" s="3"/>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="s">
-        <v>61</v>
+      <c r="A9" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="B9" s="6"/>
-      <c r="C9" s="7" t="s">
-        <v>63</v>
+      <c r="C9" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="s">
-        <v>68</v>
+      <c r="A10" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="B10" s="6"/>
-      <c r="C10" s="7" t="s">
-        <v>73</v>
+      <c r="C10" s="9" t="s">
+        <v>78</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -5693,10 +5724,10 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>76</v>
+        <v>35</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>142</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="6"/>
@@ -5704,23 +5735,23 @@
       <c r="F11" s="1"/>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="s">
-        <v>68</v>
+      <c r="A12" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="B12" s="1"/>
-      <c r="C12" s="3" t="s">
-        <v>77</v>
+      <c r="C12" s="5" t="s">
+        <v>143</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="1"/>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>78</v>
+      <c r="A13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>144</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="6"/>
@@ -5728,23 +5759,23 @@
       <c r="F13" s="1"/>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="s">
-        <v>68</v>
+      <c r="A14" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="B14" s="1"/>
-      <c r="C14" s="3" t="s">
-        <v>81</v>
+      <c r="C14" s="5" t="s">
+        <v>145</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>83</v>
+      <c r="A15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>146</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="6"/>
@@ -5752,12 +5783,12 @@
       <c r="F15" s="1"/>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="s">
-        <v>62</v>
+      <c r="A16" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="B16" s="1"/>
-      <c r="C16" s="3" t="s">
-        <v>86</v>
+      <c r="C16" s="5" t="s">
+        <v>147</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="6"/>
@@ -5765,11 +5796,11 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="B17" s="1"/>
-      <c r="C17" s="3" t="s">
-        <v>91</v>
+      <c r="C17" s="5" t="s">
+        <v>148</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -5780,8 +5811,8 @@
         <v>6</v>
       </c>
       <c r="B18" s="1"/>
-      <c r="C18" s="3" t="s">
-        <v>93</v>
+      <c r="C18" s="5" t="s">
+        <v>149</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="1"/>
@@ -5792,20 +5823,20 @@
         <v>6</v>
       </c>
       <c r="B19" s="1"/>
-      <c r="C19" s="3" t="s">
-        <v>94</v>
+      <c r="C19" s="5" t="s">
+        <v>150</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="3" t="s">
-        <v>62</v>
+      <c r="A20" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="B20" s="6"/>
-      <c r="C20" s="7" t="s">
-        <v>95</v>
+      <c r="C20" s="9" t="s">
+        <v>151</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -5813,299 +5844,299 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="B21" s="1"/>
-      <c r="C21" s="11" t="s">
-        <v>96</v>
+      <c r="C21" s="13" t="s">
+        <v>152</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="1"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B22" s="1"/>
-      <c r="C22" s="11" t="s">
-        <v>100</v>
+      <c r="C22" s="13" t="s">
+        <v>153</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="1"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B23" s="1"/>
-      <c r="C23" s="11" t="s">
-        <v>101</v>
+      <c r="C23" s="13" t="s">
+        <v>154</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="1"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B24" s="1"/>
-      <c r="C24" s="11" t="s">
-        <v>102</v>
+      <c r="C24" s="13" t="s">
+        <v>155</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="3" t="s">
-        <v>62</v>
+      <c r="A25" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="14" t="s">
-        <v>103</v>
+        <v>156</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="3" t="s">
-        <v>68</v>
+      <c r="A26" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="14" t="s">
-        <v>101</v>
+        <v>154</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B27" s="1"/>
-      <c r="C27" s="11" t="s">
-        <v>100</v>
+      <c r="C27" s="13" t="s">
+        <v>153</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="1"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B28" s="1"/>
-      <c r="C28" s="11" t="s">
-        <v>113</v>
+      <c r="C28" s="13" t="s">
+        <v>157</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="1"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B29" s="1"/>
-      <c r="C29" s="11" t="s">
-        <v>102</v>
+      <c r="C29" s="13" t="s">
+        <v>155</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="1"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="3" t="s">
-        <v>62</v>
+      <c r="A30" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="14" t="s">
-        <v>115</v>
+        <v>158</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="3" t="s">
-        <v>68</v>
+      <c r="A31" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="B31" s="6"/>
-      <c r="C31" s="7" t="s">
-        <v>117</v>
+      <c r="C31" s="9" t="s">
+        <v>159</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B32" s="1"/>
-      <c r="C32" s="11" t="s">
-        <v>119</v>
+      <c r="C32" s="13" t="s">
+        <v>160</v>
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="1"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B33" s="1"/>
-      <c r="C33" s="11" t="s">
-        <v>121</v>
+      <c r="C33" s="13" t="s">
+        <v>161</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="1"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B34" s="1"/>
-      <c r="C34" s="11" t="s">
-        <v>123</v>
+      <c r="C34" s="13" t="s">
+        <v>162</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="1"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="3" t="s">
-        <v>62</v>
+      <c r="A35" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="B35" s="6"/>
-      <c r="C35" s="7" t="s">
-        <v>125</v>
+      <c r="C35" s="9" t="s">
+        <v>163</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="3" t="s">
-        <v>68</v>
+      <c r="A36" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="B36" s="6"/>
-      <c r="C36" s="7" t="s">
-        <v>100</v>
+      <c r="C36" s="9" t="s">
+        <v>153</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B37" s="1"/>
-      <c r="C37" s="11" t="s">
-        <v>113</v>
+      <c r="C37" s="13" t="s">
+        <v>157</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="1"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B38" s="1"/>
-      <c r="C38" s="11" t="s">
-        <v>101</v>
+      <c r="C38" s="13" t="s">
+        <v>154</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="1"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B39" s="1"/>
-      <c r="C39" s="11" t="s">
-        <v>102</v>
+      <c r="C39" s="13" t="s">
+        <v>155</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="1"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="3" t="s">
-        <v>62</v>
+      <c r="A40" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="B40" s="6"/>
-      <c r="C40" s="7" t="s">
-        <v>130</v>
+      <c r="C40" s="9" t="s">
+        <v>164</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="3" t="s">
-        <v>68</v>
+      <c r="A41" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="B41" s="6"/>
-      <c r="C41" s="7" t="s">
-        <v>131</v>
+      <c r="C41" s="9" t="s">
+        <v>165</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B42" s="1"/>
-      <c r="C42" s="11" t="s">
-        <v>132</v>
+      <c r="C42" s="13" t="s">
+        <v>166</v>
       </c>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
       <c r="F42" s="1"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B43" s="1"/>
-      <c r="C43" s="11" t="s">
-        <v>123</v>
+      <c r="C43" s="13" t="s">
+        <v>162</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="1"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B44" s="1"/>
-      <c r="C44" s="11" t="s">
-        <v>133</v>
+      <c r="C44" s="13" t="s">
+        <v>167</v>
       </c>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="1"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="3" t="s">
-        <v>62</v>
+      <c r="A45" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="B45" s="6"/>
-      <c r="C45" s="7" t="s">
-        <v>134</v>
+      <c r="C45" s="9" t="s">
+        <v>168</v>
       </c>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
@@ -6113,11 +6144,11 @@
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="1" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="B46" s="1"/>
-      <c r="C46" s="3" t="s">
-        <v>135</v>
+      <c r="C46" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
@@ -6128,8 +6159,8 @@
         <v>6</v>
       </c>
       <c r="B47" s="1"/>
-      <c r="C47" s="3" t="s">
-        <v>136</v>
+      <c r="C47" s="5" t="s">
+        <v>170</v>
       </c>
       <c r="D47" s="6"/>
       <c r="E47" s="1"/>
@@ -6140,20 +6171,20 @@
         <v>6</v>
       </c>
       <c r="B48" s="1"/>
-      <c r="C48" s="3" t="s">
-        <v>137</v>
+      <c r="C48" s="5" t="s">
+        <v>171</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B49" s="1"/>
-      <c r="C49" s="3" t="s">
-        <v>138</v>
+      <c r="C49" s="5" t="s">
+        <v>172</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -7173,120 +7204,120 @@
         <v>8</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="3" t="s">
-        <v>139</v>
+      <c r="C2" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="D2" s="1"/>
-      <c r="E2" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="F2" s="4"/>
+      <c r="E2" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="3"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="3" t="s">
-        <v>141</v>
+        <v>11</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="D3" s="1"/>
-      <c r="E3" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="F3" s="4"/>
+      <c r="E3" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" s="3"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3" t="s">
-        <v>143</v>
+        <v>11</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5" t="s">
+        <v>88</v>
       </c>
       <c r="D4" s="6"/>
-      <c r="E4" s="7" t="s">
-        <v>144</v>
+      <c r="E4" s="9" t="s">
+        <v>89</v>
       </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="7" t="s">
-        <v>145</v>
+        <v>11</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="9" t="s">
+        <v>90</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="3" t="s">
-        <v>146</v>
+      <c r="E5" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="F5" s="1"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="8" t="s">
-        <v>147</v>
+        <v>19</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="7" t="s">
+        <v>92</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="3" t="s">
-        <v>148</v>
+      <c r="E6" s="5" t="s">
+        <v>93</v>
       </c>
       <c r="F6" s="1"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="8" t="s">
-        <v>149</v>
+        <v>19</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="7" t="s">
+        <v>94</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="F7" s="4"/>
+      <c r="E7" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" s="3"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="8" t="s">
-        <v>151</v>
+        <v>19</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="7" t="s">
+        <v>96</v>
       </c>
       <c r="D8" s="1"/>
-      <c r="E8" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="F8" s="4"/>
+      <c r="E8" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F8" s="3"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="8" t="s">
-        <v>153</v>
+        <v>19</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="F9" s="4"/>
+      <c r="E9" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F9" s="3"/>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="s">
-        <v>62</v>
+      <c r="A10" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="B10" s="6"/>
-      <c r="C10" s="7" t="s">
-        <v>155</v>
+      <c r="C10" s="9" t="s">
+        <v>100</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -7294,11 +7325,11 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="B11" s="1"/>
-      <c r="C11" s="3" t="s">
-        <v>156</v>
+      <c r="C11" s="5" t="s">
+        <v>101</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -7310,19 +7341,19 @@
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="1"/>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="s">
-        <v>62</v>
+      <c r="A13" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="B13" s="1"/>
-      <c r="C13" s="3" t="s">
-        <v>157</v>
+      <c r="C13" s="5" t="s">
+        <v>102</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="6"/>
@@ -7330,11 +7361,11 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="B14" s="1"/>
-      <c r="C14" s="3" t="s">
-        <v>158</v>
+      <c r="C14" s="5" t="s">
+        <v>103</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -7345,8 +7376,8 @@
         <v>6</v>
       </c>
       <c r="B15" s="1"/>
-      <c r="C15" s="3" t="s">
-        <v>159</v>
+      <c r="C15" s="5" t="s">
+        <v>104</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="1"/>
@@ -7357,20 +7388,20 @@
         <v>6</v>
       </c>
       <c r="B16" s="1"/>
-      <c r="C16" s="3" t="s">
-        <v>160</v>
+      <c r="C16" s="5" t="s">
+        <v>105</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="3" t="s">
-        <v>62</v>
+      <c r="A17" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="B17" s="6"/>
-      <c r="C17" s="7" t="s">
-        <v>161</v>
+      <c r="C17" s="9" t="s">
+        <v>106</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -7378,11 +7409,11 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="B18" s="1"/>
-      <c r="C18" s="11" t="s">
-        <v>162</v>
+      <c r="C18" s="13" t="s">
+        <v>107</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
@@ -7394,7 +7425,7 @@
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="14" t="s">
-        <v>163</v>
+        <v>108</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="1"/>
@@ -7406,19 +7437,19 @@
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="14" t="s">
-        <v>164</v>
+        <v>110</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="3" t="s">
-        <v>62</v>
+      <c r="A21" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="B21" s="6"/>
-      <c r="C21" s="7" t="s">
-        <v>165</v>
+      <c r="C21" s="9" t="s">
+        <v>111</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
@@ -7426,11 +7457,11 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -7442,31 +7473,31 @@
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="3" t="s">
-        <v>61</v>
+      <c r="A24" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="3" t="s">
-        <v>68</v>
+      <c r="A25" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="B25" s="1"/>
-      <c r="C25" s="3" t="s">
-        <v>166</v>
+      <c r="C25" s="5" t="s">
+        <v>114</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -7474,10 +7505,10 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>167</v>
+        <v>35</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -7485,12 +7516,12 @@
       <c r="F26" s="1"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="3" t="s">
-        <v>68</v>
+      <c r="A27" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="B27" s="1"/>
-      <c r="C27" s="3" t="s">
-        <v>168</v>
+      <c r="C27" s="5" t="s">
+        <v>118</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -7498,10 +7529,10 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>169</v>
+        <v>35</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>120</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -7509,12 +7540,12 @@
       <c r="F28" s="1"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="3" t="s">
-        <v>68</v>
+      <c r="A29" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="B29" s="1"/>
-      <c r="C29" s="3" t="s">
-        <v>109</v>
+      <c r="C29" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -7522,10 +7553,10 @@
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>170</v>
+        <v>35</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>123</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -7533,12 +7564,12 @@
       <c r="F30" s="1"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="3" t="s">
-        <v>68</v>
+      <c r="A31" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="B31" s="1"/>
-      <c r="C31" s="3" t="s">
-        <v>171</v>
+      <c r="C31" s="5" t="s">
+        <v>125</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -7546,10 +7577,10 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>172</v>
+        <v>35</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -8571,124 +8602,124 @@
         <v>8</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>173</v>
       </c>
       <c r="D2" s="1"/>
-      <c r="E2" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="F2" s="4"/>
+      <c r="E2" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="F2" s="3"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="3" t="s">
-        <v>175</v>
+        <v>11</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5" t="s">
+        <v>177</v>
       </c>
       <c r="D3" s="1"/>
-      <c r="E3" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="F3" s="4"/>
+      <c r="E3" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="F3" s="3"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>178</v>
+        <v>11</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>183</v>
       </c>
       <c r="D4" s="6"/>
-      <c r="E4" s="7" t="s">
-        <v>179</v>
+      <c r="E4" s="9" t="s">
+        <v>185</v>
       </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>180</v>
+        <v>11</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>190</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="3" t="s">
-        <v>182</v>
+      <c r="E5" s="5" t="s">
+        <v>191</v>
       </c>
       <c r="F5" s="1"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="8" t="s">
-        <v>184</v>
+        <v>19</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="7" t="s">
+        <v>194</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="3" t="s">
-        <v>186</v>
+      <c r="E6" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="F6" s="1"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="8" t="s">
-        <v>189</v>
+        <v>19</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="7" t="s">
+        <v>197</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="F7" s="4"/>
+      <c r="E7" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="F7" s="3"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="8" t="s">
-        <v>193</v>
+        <v>19</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="7" t="s">
+        <v>200</v>
       </c>
       <c r="D8" s="1"/>
-      <c r="E8" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="F8" s="4"/>
+      <c r="E8" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="F8" s="3"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="8" t="s">
-        <v>198</v>
+        <v>19</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="7" t="s">
+        <v>202</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="F9" s="4"/>
+      <c r="E9" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="F9" s="3"/>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="s">
-        <v>62</v>
+      <c r="A10" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="B10" s="6"/>
-      <c r="C10" s="7" t="s">
-        <v>203</v>
+      <c r="C10" s="9" t="s">
+        <v>204</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -8696,11 +8727,11 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="B11" s="1"/>
-      <c r="C11" s="3" t="s">
-        <v>156</v>
+      <c r="C11" s="5" t="s">
+        <v>101</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -8712,19 +8743,19 @@
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="1"/>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="s">
-        <v>62</v>
+      <c r="A13" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="B13" s="1"/>
-      <c r="C13" s="3" t="s">
-        <v>212</v>
+      <c r="C13" s="5" t="s">
+        <v>205</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="6"/>
@@ -8732,11 +8763,11 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="B14" s="1"/>
-      <c r="C14" s="3" t="s">
-        <v>215</v>
+      <c r="C14" s="5" t="s">
+        <v>206</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -8747,8 +8778,8 @@
         <v>6</v>
       </c>
       <c r="B15" s="1"/>
-      <c r="C15" s="3" t="s">
-        <v>217</v>
+      <c r="C15" s="5" t="s">
+        <v>207</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="1"/>
@@ -8759,20 +8790,20 @@
         <v>6</v>
       </c>
       <c r="B16" s="1"/>
-      <c r="C16" s="3" t="s">
-        <v>218</v>
+      <c r="C16" s="5" t="s">
+        <v>210</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="3" t="s">
-        <v>62</v>
+      <c r="A17" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="B17" s="6"/>
-      <c r="C17" s="7" t="s">
-        <v>219</v>
+      <c r="C17" s="9" t="s">
+        <v>213</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -8780,10 +8811,10 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="B18" s="1"/>
-      <c r="C18" s="11">
+      <c r="C18" s="13">
         <v>200.0</v>
       </c>
       <c r="D18" s="6"/>
@@ -8827,12 +8858,12 @@
       <c r="F21" s="1"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="3" t="s">
-        <v>62</v>
+      <c r="A22" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="B22" s="6"/>
-      <c r="C22" s="7" t="s">
-        <v>225</v>
+      <c r="C22" s="9" t="s">
+        <v>223</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -8840,11 +8871,11 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
@@ -8856,31 +8887,31 @@
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="3" t="s">
-        <v>61</v>
+      <c r="A25" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="3" t="s">
-        <v>68</v>
+      <c r="A26" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="B26" s="1"/>
-      <c r="C26" s="3" t="s">
-        <v>231</v>
+      <c r="C26" s="5" t="s">
+        <v>226</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -8888,10 +8919,10 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>232</v>
+        <v>35</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>227</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -8899,12 +8930,12 @@
       <c r="F27" s="1"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="3" t="s">
-        <v>68</v>
+      <c r="A28" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="B28" s="1"/>
-      <c r="C28" s="3" t="s">
-        <v>233</v>
+      <c r="C28" s="5" t="s">
+        <v>228</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -8912,10 +8943,10 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>235</v>
+        <v>35</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>230</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -8923,12 +8954,12 @@
       <c r="F29" s="1"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="3" t="s">
-        <v>68</v>
+      <c r="A30" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="B30" s="1"/>
-      <c r="C30" s="3" t="s">
-        <v>107</v>
+      <c r="C30" s="5" t="s">
+        <v>109</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -8936,10 +8967,10 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>238</v>
+        <v>35</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>233</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -8947,12 +8978,12 @@
       <c r="F31" s="1"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="3" t="s">
-        <v>68</v>
+      <c r="A32" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="B32" s="1"/>
-      <c r="C32" s="3" t="s">
-        <v>239</v>
+      <c r="C32" s="5" t="s">
+        <v>235</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -8960,10 +8991,10 @@
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>241</v>
+        <v>35</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>237</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -9951,7 +9982,9 @@
     <col customWidth="1" min="4" max="4" width="14.86"/>
     <col customWidth="1" min="5" max="5" width="67.43"/>
     <col customWidth="1" min="6" max="6" width="17.29"/>
-    <col customWidth="1" min="7" max="26" width="8.71"/>
+    <col customWidth="1" min="7" max="7" width="8.71"/>
+    <col customWidth="1" min="8" max="8" width="96.14"/>
+    <col customWidth="1" min="9" max="26" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -9984,147 +10017,156 @@
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3" t="s">
-        <v>181</v>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5" t="s">
+        <v>174</v>
       </c>
       <c r="D2" s="1"/>
-      <c r="E2" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="F2" s="4"/>
+      <c r="E2" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="F2" s="3"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="3" t="s">
-        <v>185</v>
+        <v>11</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5" t="s">
+        <v>178</v>
       </c>
       <c r="D3" s="1"/>
-      <c r="E3" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="F3" s="4"/>
+      <c r="E3" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="F3" s="3"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>190</v>
+        <v>11</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>184</v>
       </c>
       <c r="D4" s="6"/>
-      <c r="E4" s="7" t="s">
-        <v>192</v>
+      <c r="E4" s="9" t="s">
+        <v>186</v>
       </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>196</v>
+        <v>11</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>188</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="3" t="s">
-        <v>197</v>
+      <c r="E5" s="5" t="s">
+        <v>189</v>
       </c>
       <c r="F5" s="1"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>201</v>
+        <v>19</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>193</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="3" t="s">
-        <v>202</v>
+      <c r="E6" s="5" t="s">
+        <v>195</v>
       </c>
       <c r="F6" s="1"/>
+      <c r="H6" s="15" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>205</v>
+        <v>19</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>209</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="F7" s="4"/>
+      <c r="E7" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="F7" s="3"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>208</v>
+        <v>19</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>214</v>
       </c>
       <c r="D8" s="1"/>
-      <c r="E8" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="F8" s="4"/>
+      <c r="E8" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="H8" s="15" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>211</v>
+        <v>19</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>218</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="F9" s="4"/>
+      <c r="E9" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="F9" s="3"/>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>216</v>
+      <c r="A10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>221</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="1"/>
+      <c r="H10" s="15" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="B11" s="1"/>
-      <c r="C11" s="3" t="s">
-        <v>69</v>
+      <c r="C11" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -10136,21 +10178,19 @@
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="1"/>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>221</v>
+      <c r="A13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5" t="s">
+        <v>224</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="6"/>
@@ -10158,11 +10198,11 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="B14" s="1"/>
-      <c r="C14" s="3" t="s">
-        <v>222</v>
+      <c r="C14" s="5" t="s">
+        <v>225</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -10173,8 +10213,8 @@
         <v>6</v>
       </c>
       <c r="B15" s="1"/>
-      <c r="C15" s="3" t="s">
-        <v>73</v>
+      <c r="C15" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="1"/>
@@ -10185,22 +10225,22 @@
         <v>6</v>
       </c>
       <c r="B16" s="1"/>
-      <c r="C16" s="3" t="s">
-        <v>171</v>
+      <c r="C16" s="5" t="s">
+        <v>125</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>224</v>
+      <c r="A17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>231</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -10208,11 +10248,11 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="B18" s="1"/>
-      <c r="C18" s="11" t="s">
-        <v>226</v>
+      <c r="C18" s="13" t="s">
+        <v>232</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
@@ -10224,7 +10264,7 @@
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="14" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="1"/>
@@ -10236,33 +10276,36 @@
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="14" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>230</v>
+      <c r="A21" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>239</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="1"/>
+      <c r="H21" s="15" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -10274,31 +10317,31 @@
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="3" t="s">
-        <v>61</v>
+      <c r="A24" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="B24" s="1"/>
-      <c r="C24" s="3" t="s">
-        <v>234</v>
+      <c r="C24" s="5" t="s">
+        <v>241</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="3" t="s">
-        <v>68</v>
+      <c r="A25" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="B25" s="1"/>
-      <c r="C25" s="3" t="s">
-        <v>236</v>
+      <c r="C25" s="5" t="s">
+        <v>242</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -10306,23 +10349,26 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>237</v>
+        <v>35</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>243</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
+      <c r="H26" s="15" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="3" t="s">
-        <v>68</v>
+      <c r="A27" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="B27" s="1"/>
-      <c r="C27" s="3" t="s">
-        <v>109</v>
+      <c r="C27" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -10330,23 +10376,26 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>240</v>
+        <v>35</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>245</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
+      <c r="H28" s="15" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="3" t="s">
-        <v>68</v>
+      <c r="A29" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="B29" s="1"/>
-      <c r="C29" s="3" t="s">
-        <v>242</v>
+      <c r="C29" s="5" t="s">
+        <v>247</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -10354,23 +10403,26 @@
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>220</v>
+        <v>35</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>248</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
+      <c r="H30" s="15" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="3" t="s">
-        <v>68</v>
+      <c r="A31" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="B31" s="1"/>
-      <c r="C31" s="3" t="s">
-        <v>104</v>
+      <c r="C31" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -10378,15 +10430,18 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>247</v>
+        <v>35</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>250</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
+      <c r="H32" s="15" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
@@ -11345,10 +11400,20 @@
     <row r="987" ht="15.75" customHeight="1"/>
     <row r="988" ht="15.75" customHeight="1"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="H6"/>
+    <hyperlink r:id="rId2" ref="H8"/>
+    <hyperlink r:id="rId3" ref="H10"/>
+    <hyperlink r:id="rId4" ref="H21"/>
+    <hyperlink r:id="rId5" ref="H26"/>
+    <hyperlink r:id="rId6" ref="H28"/>
+    <hyperlink r:id="rId7" ref="H30"/>
+    <hyperlink r:id="rId8" ref="H32"/>
+  </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -11401,133 +11466,133 @@
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3" t="s">
-        <v>243</v>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5" t="s">
+        <v>252</v>
       </c>
       <c r="D2" s="1"/>
-      <c r="E2" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="F2" s="4"/>
+      <c r="E2" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="F2" s="3"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="3" t="s">
-        <v>245</v>
+        <v>11</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5" t="s">
+        <v>254</v>
       </c>
       <c r="D3" s="1"/>
-      <c r="E3" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="F3" s="4"/>
+      <c r="E3" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="F3" s="3"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>190</v>
+        <v>11</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>184</v>
       </c>
       <c r="D4" s="6"/>
-      <c r="E4" s="7" t="s">
-        <v>192</v>
+      <c r="E4" s="9" t="s">
+        <v>186</v>
       </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="7" t="s">
-        <v>249</v>
+        <v>11</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="9" t="s">
+        <v>257</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="3" t="s">
-        <v>250</v>
+      <c r="E5" s="5" t="s">
+        <v>258</v>
       </c>
       <c r="F5" s="1"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>252</v>
+        <v>19</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>260</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="3" t="s">
-        <v>253</v>
+      <c r="E6" s="5" t="s">
+        <v>261</v>
       </c>
       <c r="F6" s="1"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>255</v>
+        <v>19</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>263</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="F7" s="4"/>
+      <c r="E7" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="F7" s="3"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>258</v>
+        <v>19</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>266</v>
       </c>
       <c r="D8" s="1"/>
-      <c r="E8" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="F8" s="4"/>
+      <c r="E8" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="F8" s="3"/>
     </row>
     <row r="9" ht="158.25" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>261</v>
+        <v>19</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>269</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="F9" s="4"/>
+      <c r="E9" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="F9" s="3"/>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>264</v>
+      <c r="A10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>272</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -11535,11 +11600,11 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="B11" s="1"/>
-      <c r="C11" s="3" t="s">
-        <v>69</v>
+      <c r="C11" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -11551,21 +11616,21 @@
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="1"/>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>266</v>
+      <c r="A13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>274</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="6"/>
@@ -11573,11 +11638,11 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="B14" s="1"/>
-      <c r="C14" s="3" t="s">
-        <v>267</v>
+      <c r="C14" s="5" t="s">
+        <v>277</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -11588,8 +11653,8 @@
         <v>6</v>
       </c>
       <c r="B15" s="1"/>
-      <c r="C15" s="3" t="s">
-        <v>268</v>
+      <c r="C15" s="5" t="s">
+        <v>279</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="1"/>
@@ -11600,22 +11665,20 @@
         <v>6</v>
       </c>
       <c r="B16" s="1"/>
-      <c r="C16" s="3" t="s">
-        <v>242</v>
+      <c r="C16" s="5" t="s">
+        <v>247</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>270</v>
+      <c r="A17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9" t="s">
+        <v>284</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -11623,11 +11686,11 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="B18" s="1"/>
-      <c r="C18" s="11" t="s">
-        <v>271</v>
+      <c r="C18" s="13" t="s">
+        <v>288</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
@@ -11639,7 +11702,7 @@
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="14" t="s">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="1"/>
@@ -11651,21 +11714,19 @@
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="14" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>275</v>
+      <c r="A21" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9" t="s">
+        <v>294</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
@@ -11673,11 +11734,11 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="B22" s="1"/>
-      <c r="C22" s="3" t="s">
-        <v>70</v>
+      <c r="C22" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -11688,32 +11749,32 @@
         <v>6</v>
       </c>
       <c r="B23" s="1"/>
-      <c r="C23" s="3" t="s">
-        <v>69</v>
+      <c r="C23" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="3" t="s">
-        <v>61</v>
+      <c r="A24" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="B24" s="1"/>
-      <c r="C24" s="3" t="s">
-        <v>234</v>
+      <c r="C24" s="5" t="s">
+        <v>241</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="3" t="s">
-        <v>68</v>
+      <c r="A25" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="B25" s="1"/>
-      <c r="C25" s="3" t="s">
-        <v>276</v>
+      <c r="C25" s="5" t="s">
+        <v>312</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -11721,10 +11782,10 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>277</v>
+        <v>35</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>316</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -11732,12 +11793,12 @@
       <c r="F26" s="1"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="3" t="s">
-        <v>68</v>
+      <c r="A27" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="B27" s="1"/>
-      <c r="C27" s="3" t="s">
-        <v>278</v>
+      <c r="C27" s="5" t="s">
+        <v>326</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -11745,10 +11806,10 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>279</v>
+        <v>35</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>327</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -11756,12 +11817,12 @@
       <c r="F28" s="1"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="3" t="s">
-        <v>68</v>
+      <c r="A29" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="B29" s="1"/>
-      <c r="C29" s="3" t="s">
-        <v>280</v>
+      <c r="C29" s="5" t="s">
+        <v>328</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -11769,10 +11830,10 @@
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>281</v>
+        <v>35</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>329</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -11780,12 +11841,12 @@
       <c r="F30" s="1"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="3" t="s">
-        <v>68</v>
+      <c r="A31" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="B31" s="1"/>
-      <c r="C31" s="3" t="s">
-        <v>282</v>
+      <c r="C31" s="5" t="s">
+        <v>330</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -11793,10 +11854,10 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>283</v>
+        <v>35</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>331</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -12817,170 +12878,170 @@
         <v>8</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="3" t="s">
-        <v>285</v>
+      <c r="C2" s="5" t="s">
+        <v>275</v>
       </c>
       <c r="D2" s="1"/>
-      <c r="E2" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="F2" s="4"/>
+      <c r="E2" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="F2" s="3"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="3" t="s">
-        <v>292</v>
+        <v>11</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5" t="s">
+        <v>278</v>
       </c>
       <c r="D3" s="1"/>
-      <c r="E3" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="F3" s="4"/>
+      <c r="E3" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="F3" s="3"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>190</v>
+        <v>11</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>184</v>
       </c>
       <c r="D4" s="6"/>
-      <c r="E4" s="7" t="s">
-        <v>297</v>
+      <c r="E4" s="9" t="s">
+        <v>282</v>
       </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>301</v>
+        <v>11</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>285</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="3" t="s">
-        <v>303</v>
+      <c r="E5" s="5" t="s">
+        <v>286</v>
       </c>
       <c r="F5" s="1"/>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="C6" s="8"/>
+      <c r="A6" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="C6" s="7"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="3"/>
+      <c r="E6" s="5"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="C7" s="8"/>
+      <c r="A7" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="C7" s="7"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="3"/>
+      <c r="E7" s="5"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="C8" s="8"/>
+      <c r="A8" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="C8" s="7"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="3"/>
+      <c r="E8" s="5"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>314</v>
+        <v>19</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>296</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="3" t="s">
-        <v>316</v>
+      <c r="E9" s="5" t="s">
+        <v>297</v>
       </c>
       <c r="F9" s="1"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="C10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="F10" s="4"/>
+      <c r="F10" s="3"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="C11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="F11" s="4"/>
+      <c r="F11" s="3"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="C12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>310</v>
       </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="F12" s="4"/>
+      <c r="E12" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="F12" s="3"/>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>315</v>
+      <c r="A13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>318</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -12988,11 +13049,11 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="B14" s="1"/>
-      <c r="C14" s="3" t="s">
-        <v>69</v>
+      <c r="C14" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -13004,21 +13065,21 @@
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="1"/>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>320</v>
+      <c r="A16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>323</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="6"/>
@@ -13026,10 +13087,10 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="B17" s="1"/>
-      <c r="C17" s="15">
+      <c r="C17" s="16">
         <v>60.0</v>
       </c>
       <c r="D17" s="6"/>
@@ -13041,7 +13102,7 @@
         <v>6</v>
       </c>
       <c r="B18" s="1"/>
-      <c r="C18" s="15">
+      <c r="C18" s="16">
         <v>40.0</v>
       </c>
       <c r="D18" s="6"/>
@@ -13053,7 +13114,7 @@
         <v>6</v>
       </c>
       <c r="B19" s="1"/>
-      <c r="C19" s="15">
+      <c r="C19" s="16">
         <v>100.0</v>
       </c>
       <c r="D19" s="6"/>
@@ -13061,14 +13122,14 @@
       <c r="F19" s="1"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>330</v>
+      <c r="A20" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -13076,10 +13137,10 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="B21" s="1"/>
-      <c r="C21" s="11">
+      <c r="C21" s="13">
         <v>4.0</v>
       </c>
       <c r="D21" s="6"/>
@@ -13111,14 +13172,14 @@
       <c r="F23" s="1"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>332</v>
+      <c r="A24" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>335</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
@@ -13126,11 +13187,11 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="B25" s="1"/>
-      <c r="C25" s="3" t="s">
-        <v>69</v>
+      <c r="C25" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
@@ -13141,32 +13202,32 @@
         <v>6</v>
       </c>
       <c r="B26" s="1"/>
-      <c r="C26" s="3" t="s">
-        <v>70</v>
+      <c r="C26" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="3" t="s">
-        <v>61</v>
+      <c r="A27" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="B27" s="1"/>
-      <c r="C27" s="3" t="s">
-        <v>234</v>
+      <c r="C27" s="5" t="s">
+        <v>241</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="3" t="s">
-        <v>68</v>
+      <c r="A28" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="B28" s="1"/>
-      <c r="C28" s="3" t="s">
-        <v>333</v>
+      <c r="C28" s="5" t="s">
+        <v>336</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -13174,10 +13235,10 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>334</v>
+        <v>35</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>337</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -13185,12 +13246,12 @@
       <c r="F29" s="1"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="3" t="s">
-        <v>68</v>
+      <c r="A30" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="B30" s="1"/>
-      <c r="C30" s="3" t="s">
-        <v>278</v>
+      <c r="C30" s="5" t="s">
+        <v>326</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -13198,10 +13259,10 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>336</v>
+        <v>35</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>339</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -13209,12 +13270,12 @@
       <c r="F31" s="1"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="3" t="s">
-        <v>68</v>
+      <c r="A32" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="B32" s="1"/>
-      <c r="C32" s="3" t="s">
-        <v>337</v>
+      <c r="C32" s="5" t="s">
+        <v>341</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -13222,10 +13283,10 @@
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>339</v>
+        <v>35</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>342</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -13233,12 +13294,12 @@
       <c r="F33" s="1"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="3" t="s">
-        <v>68</v>
+      <c r="A34" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="B34" s="1"/>
-      <c r="C34" s="3" t="s">
-        <v>340</v>
+      <c r="C34" s="5" t="s">
+        <v>343</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -13246,10 +13307,10 @@
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>342</v>
+        <v>35</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>344</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -14270,122 +14331,122 @@
         <v>8</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="3" t="s">
-        <v>284</v>
+      <c r="C2" s="5" t="s">
+        <v>298</v>
       </c>
       <c r="D2" s="1"/>
-      <c r="E2" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="F2" s="4"/>
+      <c r="E2" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="F2" s="3"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="3" t="s">
-        <v>288</v>
+        <v>11</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5" t="s">
+        <v>304</v>
       </c>
       <c r="D3" s="1"/>
-      <c r="E3" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="F3" s="4"/>
+      <c r="E3" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="F3" s="3"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>190</v>
+        <v>11</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>184</v>
       </c>
       <c r="D4" s="6"/>
-      <c r="E4" s="7" t="s">
-        <v>291</v>
+      <c r="E4" s="9" t="s">
+        <v>311</v>
       </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="7" t="s">
-        <v>294</v>
+        <v>11</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="9" t="s">
+        <v>314</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="3" t="s">
-        <v>296</v>
+      <c r="E5" s="5" t="s">
+        <v>315</v>
       </c>
       <c r="F5" s="1"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="8" t="s">
-        <v>298</v>
+        <v>19</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="7" t="s">
+        <v>319</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="3" t="s">
-        <v>299</v>
+      <c r="E6" s="5" t="s">
+        <v>320</v>
       </c>
       <c r="F6" s="1"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="8" t="s">
-        <v>302</v>
+        <v>19</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="7" t="s">
+        <v>321</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="F7" s="4"/>
+      <c r="E7" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="F7" s="3"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="8" t="s">
-        <v>307</v>
+        <v>19</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="7" t="s">
+        <v>305</v>
       </c>
       <c r="D8" s="1"/>
-      <c r="E8" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="F8" s="4"/>
+      <c r="E8" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="F8" s="3"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="7" t="s">
         <v>310</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="F9" s="4"/>
+      <c r="E9" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="F9" s="3"/>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="s">
-        <v>62</v>
+      <c r="A10" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="B10" s="6"/>
-      <c r="C10" s="7" t="s">
-        <v>315</v>
+      <c r="C10" s="9" t="s">
+        <v>318</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -14393,11 +14454,11 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="B11" s="1"/>
-      <c r="C11" s="3" t="s">
-        <v>69</v>
+      <c r="C11" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -14409,19 +14470,19 @@
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="1"/>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="s">
-        <v>62</v>
+      <c r="A13" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="B13" s="1"/>
-      <c r="C13" s="3" t="s">
-        <v>320</v>
+      <c r="C13" s="5" t="s">
+        <v>323</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="6"/>
@@ -14429,10 +14490,10 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="B14" s="1"/>
-      <c r="C14" s="15">
+      <c r="C14" s="16">
         <v>60.0</v>
       </c>
       <c r="D14" s="6"/>
@@ -14444,7 +14505,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="1"/>
-      <c r="C15" s="15">
+      <c r="C15" s="16">
         <v>40.0</v>
       </c>
       <c r="D15" s="6"/>
@@ -14456,7 +14517,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="1"/>
-      <c r="C16" s="15">
+      <c r="C16" s="16">
         <v>100.0</v>
       </c>
       <c r="D16" s="6"/>
@@ -14464,12 +14525,12 @@
       <c r="F16" s="1"/>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="s">
-        <v>62</v>
+      <c r="A17" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="B17" s="6"/>
-      <c r="C17" s="7" t="s">
-        <v>330</v>
+      <c r="C17" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -14477,10 +14538,10 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="B18" s="1"/>
-      <c r="C18" s="11">
+      <c r="C18" s="13">
         <v>4.0</v>
       </c>
       <c r="D18" s="6"/>
@@ -14512,12 +14573,12 @@
       <c r="F20" s="1"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="3" t="s">
-        <v>62</v>
+      <c r="A21" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="B21" s="6"/>
-      <c r="C21" s="7" t="s">
-        <v>332</v>
+      <c r="C21" s="9" t="s">
+        <v>335</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
@@ -14525,11 +14586,11 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="B22" s="1"/>
-      <c r="C22" s="3" t="s">
-        <v>69</v>
+      <c r="C22" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -14540,32 +14601,32 @@
         <v>6</v>
       </c>
       <c r="B23" s="1"/>
-      <c r="C23" s="3" t="s">
-        <v>70</v>
+      <c r="C23" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="3" t="s">
-        <v>61</v>
+      <c r="A24" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="B24" s="1"/>
-      <c r="C24" s="3" t="s">
-        <v>234</v>
+      <c r="C24" s="5" t="s">
+        <v>241</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="3" t="s">
-        <v>68</v>
+      <c r="A25" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="B25" s="1"/>
-      <c r="C25" s="3" t="s">
-        <v>333</v>
+      <c r="C25" s="5" t="s">
+        <v>336</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -14573,10 +14634,10 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>335</v>
+        <v>35</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>338</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -14584,12 +14645,12 @@
       <c r="F26" s="1"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="3" t="s">
-        <v>68</v>
+      <c r="A27" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="B27" s="1"/>
-      <c r="C27" s="3" t="s">
-        <v>278</v>
+      <c r="C27" s="5" t="s">
+        <v>326</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -14597,10 +14658,10 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>338</v>
+        <v>35</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>340</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -14608,12 +14669,12 @@
       <c r="F28" s="1"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="3" t="s">
-        <v>68</v>
+      <c r="A29" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="B29" s="1"/>
-      <c r="C29" s="3" t="s">
-        <v>337</v>
+      <c r="C29" s="5" t="s">
+        <v>341</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -14621,10 +14682,10 @@
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>339</v>
+        <v>35</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>342</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -14632,12 +14693,12 @@
       <c r="F30" s="1"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="3" t="s">
-        <v>68</v>
+      <c r="A31" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="B31" s="1"/>
-      <c r="C31" s="3" t="s">
-        <v>340</v>
+      <c r="C31" s="5" t="s">
+        <v>343</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -14645,10 +14706,10 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>341</v>
+        <v>35</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>345</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>

--- a/scripts/Foods.xlsx
+++ b/scripts/Foods.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/srikanth/dev/chimple/maui/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B8AB5E-99BC-C541-A013-ABBEAED1AC9C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{735C4166-5E3D-5445-A544-F72F0DF7C1A2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tomatoes" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1753" uniqueCount="1132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1752" uniqueCount="1132">
   <si>
     <t>type</t>
   </si>
@@ -5647,7 +5647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:I1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -16141,7 +16141,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:I991"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -16739,9 +16741,6 @@
         <v>854</v>
       </c>
       <c r="C29" s="1"/>
-      <c r="D29" s="7" t="s">
-        <v>855</v>
-      </c>
       <c r="E29" s="1"/>
       <c r="F29" s="3"/>
       <c r="H29" s="15" t="s">
@@ -16759,7 +16758,9 @@
       <c r="C30" s="3" t="s">
         <v>858</v>
       </c>
-      <c r="D30" s="7"/>
+      <c r="D30" s="7" t="s">
+        <v>855</v>
+      </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="I30" s="2" t="s">
@@ -16774,9 +16775,6 @@
         <v>860</v>
       </c>
       <c r="C31" s="1"/>
-      <c r="D31" s="7" t="s">
-        <v>861</v>
-      </c>
       <c r="E31" s="1"/>
       <c r="F31" s="3"/>
       <c r="H31" s="29" t="s">
@@ -16794,7 +16792,9 @@
       <c r="C32" s="3" t="s">
         <v>864</v>
       </c>
-      <c r="D32" s="7"/>
+      <c r="D32" s="7" t="s">
+        <v>861</v>
+      </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="I32" s="2" t="s">
@@ -16809,9 +16809,7 @@
         <v>866</v>
       </c>
       <c r="C33" s="1"/>
-      <c r="D33" s="7" t="s">
-        <v>864</v>
-      </c>
+      <c r="D33" s="7"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="H33" s="15" t="s">
@@ -16829,7 +16827,9 @@
       <c r="C34" s="3" t="s">
         <v>869</v>
       </c>
-      <c r="D34" s="7"/>
+      <c r="D34" s="7" t="s">
+        <v>872</v>
+      </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="I34" s="2" t="s">
@@ -16844,9 +16844,6 @@
         <v>871</v>
       </c>
       <c r="C35" s="1"/>
-      <c r="D35" s="7" t="s">
-        <v>872</v>
-      </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="H35" s="15" t="s">
